--- a/Whiteboard.xlsx
+++ b/Whiteboard.xlsx
@@ -9,24 +9,27 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9195"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9195" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet5" sheetId="22" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
-    <sheet name="Pipeline" sheetId="4" r:id="rId5"/>
-    <sheet name="KeyVault" sheetId="7" r:id="rId6"/>
-    <sheet name="Container" sheetId="8" r:id="rId7"/>
-    <sheet name="Sheet7" sheetId="9" r:id="rId8"/>
-    <sheet name="Sheet9" sheetId="11" r:id="rId9"/>
-    <sheet name="Sheet11" sheetId="13" r:id="rId10"/>
-    <sheet name="Sheet12" sheetId="14" r:id="rId11"/>
-    <sheet name="Ansible" sheetId="15" r:id="rId12"/>
-    <sheet name="Terraform" sheetId="16" r:id="rId13"/>
-    <sheet name="Sheet14" sheetId="19" r:id="rId14"/>
-    <sheet name="Sheet4" sheetId="21" r:id="rId15"/>
+    <sheet name="Sheet6" sheetId="23" r:id="rId2"/>
+    <sheet name="Sheet8" sheetId="24" r:id="rId3"/>
+    <sheet name="Sheet10" sheetId="25" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="22" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId7"/>
+    <sheet name="Pipeline" sheetId="4" r:id="rId8"/>
+    <sheet name="KeyVault" sheetId="7" r:id="rId9"/>
+    <sheet name="Container" sheetId="8" r:id="rId10"/>
+    <sheet name="Sheet7" sheetId="9" r:id="rId11"/>
+    <sheet name="Sheet9" sheetId="11" r:id="rId12"/>
+    <sheet name="Sheet11" sheetId="13" r:id="rId13"/>
+    <sheet name="Sheet12" sheetId="14" r:id="rId14"/>
+    <sheet name="Ansible" sheetId="15" r:id="rId15"/>
+    <sheet name="Terraform" sheetId="16" r:id="rId16"/>
+    <sheet name="Sheet14" sheetId="19" r:id="rId17"/>
+    <sheet name="Sheet4" sheetId="21" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$27</definedName>
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="105">
   <si>
     <t>master</t>
   </si>
@@ -418,6 +421,42 @@
 - Trainees can follow the trainer
 - In case anyone can't follow, they can do hands-on after the session is over by following the recorded videos and hands-on instructions provided</t>
     </r>
+  </si>
+  <si>
+    <t>GIT</t>
+  </si>
+  <si>
+    <t>Azure Repo</t>
+  </si>
+  <si>
+    <t>Commit Area</t>
+  </si>
+  <si>
+    <t>Staging Area</t>
+  </si>
+  <si>
+    <t>file.txt</t>
+  </si>
+  <si>
+    <t>file2.txt</t>
+  </si>
+  <si>
+    <t>file3.txt</t>
+  </si>
+  <si>
+    <t>Host OS (vmubuntumay21.eastus.cloudapp.azure.com)</t>
+  </si>
+  <si>
+    <t>172.2.0.1</t>
+  </si>
+  <si>
+    <t>Container 1</t>
+  </si>
+  <si>
+    <t>Container 2</t>
+  </si>
+  <si>
+    <t>172.2.0.2</t>
   </si>
 </sst>
 </file>
@@ -616,7 +655,7 @@
       <name val="Quattrocento Sans"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -722,6 +761,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -856,7 +901,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -963,21 +1008,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1000,6 +1030,24 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1019,6 +1067,670 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2105025" y="1352550"/>
+          <a:ext cx="2209800" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4581525" y="1362075"/>
+          <a:ext cx="1876425" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3457575" y="1133475"/>
+          <a:ext cx="3933825" cy="1181100"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2981325" y="1095375"/>
+          <a:ext cx="3038475" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6791325" y="1181101"/>
+          <a:ext cx="2838450" cy="333374"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Smiley Face 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9629775" y="219075"/>
+          <a:ext cx="657225" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="smileyFace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Smiley Face 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10372725" y="1438275"/>
+          <a:ext cx="657225" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="smileyFace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Smiley Face 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10410825" y="2562225"/>
+          <a:ext cx="657225" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="smileyFace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Smiley Face 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10277475" y="3857625"/>
+          <a:ext cx="657225" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="smileyFace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8467725" y="557213"/>
+          <a:ext cx="1162050" cy="176212"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8477250" y="962025"/>
+          <a:ext cx="1895475" cy="814388"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8477250" y="1138237"/>
+          <a:ext cx="1933575" cy="1762126"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8572500" y="3105150"/>
+          <a:ext cx="1704975" cy="1090613"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1427,7 +2139,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1520,7 +2232,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2042,7 +2754,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2242,7 +2954,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2395,7 +3107,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2488,7 +3200,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2702,154 +3414,6 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Straight Connector 2"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3457575" y="1133475"/>
-          <a:ext cx="3933825" cy="1181100"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2981325" y="1095375"/>
-          <a:ext cx="3038475" cy="352425"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6791325" y="1181101"/>
-          <a:ext cx="2838450" cy="333374"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -3136,8 +3700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3165,7 +3729,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1"/>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="82" t="s">
         <v>82</v>
       </c>
       <c r="C2" s="1"/>
@@ -3205,7 +3769,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1"/>
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="82" t="s">
         <v>83</v>
       </c>
       <c r="C6" s="1"/>
@@ -3237,7 +3801,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="28"/>
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="82" t="s">
         <v>85</v>
       </c>
       <c r="C9" s="28"/>
@@ -3267,93 +3831,93 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1"/>
-      <c r="B12" s="88" t="s">
+      <c r="B12" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="90"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="85"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1"/>
-      <c r="B13" s="91" t="s">
+      <c r="B13" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="90"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="85"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1"/>
-      <c r="B14" s="91" t="s">
+      <c r="B14" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="93"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="88"/>
       <c r="G14" s="56"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1"/>
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="89"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="90"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="85"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1"/>
-      <c r="B16" s="94" t="s">
+      <c r="B16" s="89" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="94"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="94"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
       <c r="G16" s="28"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1"/>
-      <c r="B17" s="94"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="94"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1"/>
-      <c r="B18" s="94"/>
-      <c r="C18" s="94"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="94"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="89"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1"/>
-      <c r="B19" s="94"/>
-      <c r="C19" s="94"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="94"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1"/>
-      <c r="B20" s="94"/>
-      <c r="C20" s="94"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="94"/>
-      <c r="F20" s="94"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="89"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" ht="41.25" customHeight="1">
@@ -3470,6 +4034,623 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:R17"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:18" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:18">
+      <c r="B2" s="35"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="37"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+    </row>
+    <row r="3" spans="2:18">
+      <c r="B3" s="38"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="40"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+    </row>
+    <row r="4" spans="2:18">
+      <c r="B4" s="44"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="40"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+    </row>
+    <row r="5" spans="2:18">
+      <c r="B5" s="44"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22">
+        <v>8080</v>
+      </c>
+      <c r="R5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18">
+      <c r="B6" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="45"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="40"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+    </row>
+    <row r="7" spans="2:18">
+      <c r="B7" s="44"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="40"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" s="24"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+    </row>
+    <row r="8" spans="2:18">
+      <c r="B8" s="44"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="40"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+    </row>
+    <row r="9" spans="2:18">
+      <c r="B9" s="38"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="40"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+    </row>
+    <row r="10" spans="2:18">
+      <c r="B10" s="38"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="40"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+    </row>
+    <row r="11" spans="2:18">
+      <c r="B11" s="38"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="40"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+    </row>
+    <row r="12" spans="2:18">
+      <c r="B12" s="38"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="40"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+    </row>
+    <row r="13" spans="2:18">
+      <c r="B13" s="38"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="40"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+    </row>
+    <row r="14" spans="2:18">
+      <c r="B14" s="38"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="40"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+    </row>
+    <row r="15" spans="2:18">
+      <c r="B15" s="38"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="40"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+    </row>
+    <row r="16" spans="2:18">
+      <c r="B16" s="38"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="40"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+    </row>
+    <row r="17" spans="2:17" ht="15.75" thickBot="1">
+      <c r="B17" s="41"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="43"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:P13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="3:16">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="3:16">
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="48"/>
+    </row>
+    <row r="4" spans="3:16">
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+    </row>
+    <row r="5" spans="3:16">
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+    </row>
+    <row r="6" spans="3:16">
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+    </row>
+    <row r="7" spans="3:16">
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+    </row>
+    <row r="8" spans="3:16">
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+    </row>
+    <row r="9" spans="3:16">
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+    </row>
+    <row r="10" spans="3:16">
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+    </row>
+    <row r="11" spans="3:16">
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+    </row>
+    <row r="12" spans="3:16">
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+    </row>
+    <row r="13" spans="3:16">
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="2:14">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="2:14">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="14"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="14"/>
+      <c r="J6" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="14"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="14"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="14"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:S22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3700,7 +4881,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:P16"/>
   <sheetViews>
@@ -3782,7 +4963,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:Q20"/>
   <sheetViews>
@@ -3963,7 +5144,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:S18"/>
   <sheetViews>
@@ -3980,12 +5161,12 @@
       </c>
       <c r="L2" s="59"/>
       <c r="M2" s="60"/>
-      <c r="N2" s="85" t="s">
+      <c r="N2" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="85"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
       <c r="R2" s="60"/>
       <c r="S2" s="61"/>
     </row>
@@ -4186,7 +5367,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:R13"/>
   <sheetViews>
@@ -4362,7 +5543,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:S14"/>
   <sheetViews>
@@ -4373,20 +5554,20 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="4:19" ht="23.25" customHeight="1">
-      <c r="J2" s="86" t="s">
+      <c r="J2" s="94" t="s">
         <v>67</v>
       </c>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
     </row>
     <row r="3" spans="4:19" ht="21">
       <c r="D3" s="77" t="s">
         <v>65</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
     </row>
     <row r="4" spans="4:19" ht="26.25">
       <c r="D4" s="4"/>
@@ -4503,6 +5684,536 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D3:K13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3" spans="4:11">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="4:11">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="4:11">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="4:11">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="4:11">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="4:11">
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="4:11">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="13" spans="4:11">
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B6:K17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="6" spans="2:11">
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="95" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="95"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="D11" s="95" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="95"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="D12" s="95" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="95"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="7:11">
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="F1:N22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="6:14" ht="21.75" thickBot="1">
+      <c r="G1" s="97" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="6:14">
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="37"/>
+    </row>
+    <row r="3" spans="6:14">
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="40"/>
+    </row>
+    <row r="4" spans="6:14">
+      <c r="F4" s="38"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="40">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="6:14">
+      <c r="F5" s="38"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="96"/>
+      <c r="L5" s="96"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="40">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="6:14">
+      <c r="F6" s="38"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="J6" s="96"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96">
+        <v>80</v>
+      </c>
+      <c r="M6" s="39"/>
+      <c r="N6" s="40">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="6:14">
+      <c r="F7" s="38"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="96">
+        <v>81</v>
+      </c>
+      <c r="M7" s="39"/>
+      <c r="N7" s="40">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="6:14">
+      <c r="F8" s="38"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="96"/>
+      <c r="L8" s="96">
+        <v>82</v>
+      </c>
+      <c r="M8" s="39"/>
+      <c r="N8" s="40">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="6:14">
+      <c r="F9" s="38"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="96"/>
+      <c r="K9" s="96"/>
+      <c r="L9" s="96">
+        <v>83</v>
+      </c>
+      <c r="M9" s="39"/>
+      <c r="N9" s="40">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="6:14">
+      <c r="F10" s="38"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="96">
+        <v>84</v>
+      </c>
+      <c r="M10" s="39"/>
+      <c r="N10" s="40">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="6:14">
+      <c r="F11" s="38"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="40">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="6:14">
+      <c r="F12" s="38"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="40">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="6:14">
+      <c r="F13" s="38"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="40">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="6:14">
+      <c r="F14" s="38"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="96" t="s">
+        <v>104</v>
+      </c>
+      <c r="J14" s="96"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="40">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="6:14">
+      <c r="F15" s="38"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="96"/>
+      <c r="I15" s="96"/>
+      <c r="J15" s="96"/>
+      <c r="K15" s="96"/>
+      <c r="L15" s="96"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="40">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="6:14">
+      <c r="F16" s="38"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="J16" s="96"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="96">
+        <v>80</v>
+      </c>
+      <c r="M16" s="39"/>
+      <c r="N16" s="40">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="6:14">
+      <c r="F17" s="38"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="96">
+        <v>81</v>
+      </c>
+      <c r="M17" s="39"/>
+      <c r="N17" s="40">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="6:14">
+      <c r="F18" s="38"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="96"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="96">
+        <v>82</v>
+      </c>
+      <c r="M18" s="39"/>
+      <c r="N18" s="40">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="6:14">
+      <c r="F19" s="38"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="96"/>
+      <c r="J19" s="96"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="96">
+        <v>83</v>
+      </c>
+      <c r="M19" s="39"/>
+      <c r="N19" s="40">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="6:14">
+      <c r="F20" s="38"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="96"/>
+      <c r="J20" s="96"/>
+      <c r="K20" s="96"/>
+      <c r="L20" s="96">
+        <v>84</v>
+      </c>
+      <c r="M20" s="39"/>
+      <c r="N20" s="40">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="6:14">
+      <c r="F21" s="38"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="40"/>
+    </row>
+    <row r="22" spans="6:14" ht="15.75" thickBot="1">
+      <c r="F22" s="41"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="43"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4666,7 +6377,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:M16"/>
   <sheetViews>
@@ -4815,7 +6526,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:M20"/>
   <sheetViews>
@@ -4990,7 +6701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E2:S7"/>
   <sheetViews>
@@ -5038,20 +6749,20 @@
       </c>
       <c r="G4" s="22"/>
       <c r="I4" s="24"/>
-      <c r="J4" s="83" t="s">
+      <c r="J4" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="83"/>
+      <c r="K4" s="91"/>
       <c r="M4" s="14"/>
       <c r="N4" s="26" t="s">
         <v>16</v>
       </c>
       <c r="O4" s="14"/>
-      <c r="Q4" s="82" t="s">
+      <c r="Q4" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="R4" s="82"/>
-      <c r="S4" s="82"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
     </row>
     <row r="5" spans="5:19">
       <c r="E5" s="22"/>
@@ -5105,7 +6816,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="H2:Q16"/>
   <sheetViews>
@@ -5201,10 +6912,10 @@
       </c>
       <c r="J13" s="27"/>
       <c r="K13" s="27"/>
-      <c r="M13" s="84" t="s">
+      <c r="M13" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="N13" s="84"/>
+      <c r="N13" s="92"/>
     </row>
     <row r="14" spans="8:17">
       <c r="H14" s="27"/>
@@ -5242,621 +6953,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R17"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:18" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:18">
-      <c r="B2" s="35"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="37"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-    </row>
-    <row r="3" spans="2:18">
-      <c r="B3" s="38"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="40"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-    </row>
-    <row r="4" spans="2:18">
-      <c r="B4" s="44"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="40"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-    </row>
-    <row r="5" spans="2:18">
-      <c r="B5" s="44"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22">
-        <v>8080</v>
-      </c>
-      <c r="R5">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="2:18">
-      <c r="B6" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="40"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-    </row>
-    <row r="7" spans="2:18">
-      <c r="B7" s="44"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="40"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="N7" s="24"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-    </row>
-    <row r="8" spans="2:18">
-      <c r="B8" s="44"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="40"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-    </row>
-    <row r="9" spans="2:18">
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="40"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-    </row>
-    <row r="10" spans="2:18">
-      <c r="B10" s="38"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="40"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-    </row>
-    <row r="11" spans="2:18">
-      <c r="B11" s="38"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="40"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-    </row>
-    <row r="12" spans="2:18">
-      <c r="B12" s="38"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="40"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-    </row>
-    <row r="13" spans="2:18">
-      <c r="B13" s="38"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="40"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-    </row>
-    <row r="14" spans="2:18">
-      <c r="B14" s="38"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="40"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-    </row>
-    <row r="15" spans="2:18">
-      <c r="B15" s="38"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="40"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-    </row>
-    <row r="16" spans="2:18">
-      <c r="B16" s="38"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="40"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-    </row>
-    <row r="17" spans="2:17" ht="15.75" thickBot="1">
-      <c r="B17" s="41"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="43"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:P13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="2" spans="3:16">
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="3:16">
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="48"/>
-    </row>
-    <row r="4" spans="3:16">
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-    </row>
-    <row r="5" spans="3:16">
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-    </row>
-    <row r="6" spans="3:16">
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-    </row>
-    <row r="7" spans="3:16">
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-    </row>
-    <row r="8" spans="3:16">
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-    </row>
-    <row r="9" spans="3:16">
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-    </row>
-    <row r="10" spans="3:16">
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-    </row>
-    <row r="11" spans="3:16">
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-    </row>
-    <row r="12" spans="3:16">
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-    </row>
-    <row r="13" spans="3:16">
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="2" spans="2:14">
-      <c r="B2" s="14"/>
-      <c r="C2" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-    </row>
-    <row r="3" spans="2:14">
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-    </row>
-    <row r="4" spans="2:14">
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-    </row>
-    <row r="5" spans="2:14">
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="14"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-    </row>
-    <row r="6" spans="2:14">
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="14"/>
-      <c r="J6" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-    </row>
-    <row r="7" spans="2:14">
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="14"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-    </row>
-    <row r="8" spans="2:14">
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="14"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-    </row>
-    <row r="9" spans="2:14">
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="14"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-    </row>
-    <row r="10" spans="2:14">
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-    </row>
-    <row r="11" spans="2:14">
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-    </row>
-    <row r="12" spans="2:14">
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="14"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-    </row>
-    <row r="13" spans="2:14">
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-    </row>
-    <row r="14" spans="2:14">
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-    </row>
-    <row r="15" spans="2:14">
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-    </row>
-    <row r="16" spans="2:14">
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/Whiteboard.xlsx
+++ b/Whiteboard.xlsx
@@ -9,27 +9,31 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9195" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9195" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet6" sheetId="23" r:id="rId2"/>
-    <sheet name="Sheet8" sheetId="24" r:id="rId3"/>
-    <sheet name="Sheet10" sheetId="25" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="22" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId7"/>
-    <sheet name="Pipeline" sheetId="4" r:id="rId8"/>
-    <sheet name="KeyVault" sheetId="7" r:id="rId9"/>
-    <sheet name="Container" sheetId="8" r:id="rId10"/>
-    <sheet name="Sheet7" sheetId="9" r:id="rId11"/>
-    <sheet name="Sheet9" sheetId="11" r:id="rId12"/>
-    <sheet name="Sheet11" sheetId="13" r:id="rId13"/>
-    <sheet name="Sheet12" sheetId="14" r:id="rId14"/>
-    <sheet name="Ansible" sheetId="15" r:id="rId15"/>
-    <sheet name="Terraform" sheetId="16" r:id="rId16"/>
-    <sheet name="Sheet14" sheetId="19" r:id="rId17"/>
-    <sheet name="Sheet4" sheetId="21" r:id="rId18"/>
+    <sheet name="Sheet13" sheetId="26" r:id="rId2"/>
+    <sheet name="Sheet15" sheetId="27" r:id="rId3"/>
+    <sheet name="Sheet16" sheetId="28" r:id="rId4"/>
+    <sheet name="Sheet17" sheetId="29" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="23" r:id="rId6"/>
+    <sheet name="Sheet8" sheetId="24" r:id="rId7"/>
+    <sheet name="Sheet10" sheetId="25" r:id="rId8"/>
+    <sheet name="Sheet5" sheetId="22" r:id="rId9"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId10"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId11"/>
+    <sheet name="Pipeline" sheetId="4" r:id="rId12"/>
+    <sheet name="KeyVault" sheetId="7" r:id="rId13"/>
+    <sheet name="Container" sheetId="8" r:id="rId14"/>
+    <sheet name="Sheet7" sheetId="9" r:id="rId15"/>
+    <sheet name="Sheet9" sheetId="11" r:id="rId16"/>
+    <sheet name="Sheet11" sheetId="13" r:id="rId17"/>
+    <sheet name="Sheet12" sheetId="14" r:id="rId18"/>
+    <sheet name="Ansible" sheetId="15" r:id="rId19"/>
+    <sheet name="Terraform" sheetId="16" r:id="rId20"/>
+    <sheet name="Sheet14" sheetId="19" r:id="rId21"/>
+    <sheet name="Sheet4" sheetId="21" r:id="rId22"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$27</definedName>
@@ -44,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="138">
   <si>
     <t>master</t>
   </si>
@@ -458,12 +462,111 @@
   <si>
     <t>172.2.0.2</t>
   </si>
+  <si>
+    <t>Username, Password</t>
+  </si>
+  <si>
+    <t>Stores some confidential info</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>private key</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Source Code on Azure Repo</t>
+  </si>
+  <si>
+    <t>Build</t>
+  </si>
+  <si>
+    <t>Build Artifacts</t>
+  </si>
+  <si>
+    <t>- Get secrets from Key vault</t>
+  </si>
+  <si>
+    <t>- Deploy the artifacts</t>
+  </si>
+  <si>
+    <t>- Prepare Infrastructure - Create new VM, Create Azure Web App</t>
+  </si>
+  <si>
+    <t>Test-</t>
+  </si>
+  <si>
+    <t>Prod - Web app</t>
+  </si>
+  <si>
+    <t>Admin - Manually</t>
+  </si>
+  <si>
+    <t>Web App 1</t>
+  </si>
+  <si>
+    <t>Traffic Manager</t>
+  </si>
+  <si>
+    <t>www.mysite.com</t>
+  </si>
+  <si>
+    <t>has intelligence</t>
+  </si>
+  <si>
+    <t>Server 1</t>
+  </si>
+  <si>
+    <t>Server 2</t>
+  </si>
+  <si>
+    <t>Server 3</t>
+  </si>
+  <si>
+    <t>web App 1 - v2</t>
+  </si>
+  <si>
+    <t>Only send 10% traffc to Server 1</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>FAQ</t>
+  </si>
+  <si>
+    <t>200 FAQ</t>
+  </si>
+  <si>
+    <t>Support Email</t>
+  </si>
+  <si>
+    <t>Support Phone No</t>
+  </si>
+  <si>
+    <t>Chat Bot</t>
+  </si>
+  <si>
+    <t>Question and Answer Pair</t>
+  </si>
+  <si>
+    <t>NLP</t>
+  </si>
+  <si>
+    <t>Chatbot</t>
+  </si>
+  <si>
+    <t>Text Analytics</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -654,8 +757,15 @@
       <color rgb="FF171717"/>
       <name val="Quattrocento Sans"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -767,6 +877,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -901,7 +1023,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1027,6 +1149,9 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1045,9 +1170,13 @@
     <xf numFmtId="0" fontId="17" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1067,6 +1196,1782 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6105525" y="695325"/>
+          <a:ext cx="2476500" cy="1114425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7934325" y="1304925"/>
+          <a:ext cx="885825" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6410325" y="2190750"/>
+          <a:ext cx="923925" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Can 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10934700" y="1390650"/>
+          <a:ext cx="885825" cy="1123950"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10001250" y="762000"/>
+          <a:ext cx="847725" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>493059</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Smiley Face 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12875559" y="818029"/>
+          <a:ext cx="930088" cy="1154206"/>
+        </a:xfrm>
+        <a:prstGeom prst="smileyFace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>537882</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>212912</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>33619</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10824882" y="851647"/>
+          <a:ext cx="2095501" cy="336178"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>470647</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>560294</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8337176" y="941294"/>
+          <a:ext cx="1905000" cy="291353"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2924175" y="1009650"/>
+          <a:ext cx="2714625" cy="1190625"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152404</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Connector 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5943600" y="695325"/>
+          <a:ext cx="304804" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Smiley Face 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1362075" y="904875"/>
+          <a:ext cx="1085850" cy="1181100"/>
+        </a:xfrm>
+        <a:prstGeom prst="smileyFace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2114550" y="600075"/>
+          <a:ext cx="3990975" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Connector 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2266950" y="1057275"/>
+          <a:ext cx="6229350" cy="352426"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Connector 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2266950" y="1714501"/>
+          <a:ext cx="3810000" cy="923924"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Connector 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2209800" y="1581150"/>
+          <a:ext cx="6305550" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3457575" y="1133475"/>
+          <a:ext cx="3933825" cy="1181100"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2981325" y="1095375"/>
+          <a:ext cx="3038475" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6791325" y="1181101"/>
+          <a:ext cx="2838450" cy="333374"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5629275" y="1581150"/>
+          <a:ext cx="2733675" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8791575" y="2305050"/>
+          <a:ext cx="9525" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8915400" y="3171825"/>
+          <a:ext cx="0" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4200525" y="3609975"/>
+          <a:ext cx="4324350" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Smiley Face 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="657225" y="3086100"/>
+          <a:ext cx="838200" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="smileyFace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1590675" y="3371850"/>
+          <a:ext cx="1514475" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4276725" y="3762375"/>
+          <a:ext cx="4219575" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4705350" y="4286250"/>
+          <a:ext cx="3810000" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Smiley Face 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="4381500"/>
+          <a:ext cx="838200" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="smileyFace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Smiley Face 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10039350" y="1314450"/>
+          <a:ext cx="1552575" cy="1619250"/>
+        </a:xfrm>
+        <a:prstGeom prst="smileyFace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9610725" y="2228850"/>
+          <a:ext cx="600076" cy="66675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4914900" y="1009650"/>
+          <a:ext cx="1238250" cy="1362075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4895850" y="2466975"/>
+          <a:ext cx="1200150" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4943475" y="2609850"/>
+          <a:ext cx="1171575" cy="1447800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7667625" y="2314575"/>
+          <a:ext cx="866775" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Smiley Face 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9344025" y="847725"/>
+          <a:ext cx="1390650" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="smileyFace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6715125" y="1314450"/>
+          <a:ext cx="2476501" cy="1466850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3952875" y="2552700"/>
+          <a:ext cx="2076450" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1165,155 +3070,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Straight Connector 2"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3457575" y="1133475"/>
-          <a:ext cx="3933825" cy="1181100"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2981325" y="1095375"/>
-          <a:ext cx="3038475" cy="352425"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6791325" y="1181101"/>
-          <a:ext cx="2838450" cy="333374"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1730,7 +3487,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2139,7 +3896,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2232,7 +3989,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2733,687 +4490,6 @@
         <a:ln>
           <a:tailEnd type="triangle"/>
         </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="7934325" y="1304925"/>
-          <a:ext cx="885825" cy="933450"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6410325" y="2190750"/>
-          <a:ext cx="923925" cy="628650"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Can 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10934700" y="1390650"/>
-          <a:ext cx="885825" cy="1123950"/>
-        </a:xfrm>
-        <a:prstGeom prst="can">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Straight Arrow Connector 7"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10001250" y="762000"/>
-          <a:ext cx="847725" cy="904875"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>168088</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>493059</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>56029</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Smiley Face 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12875559" y="818029"/>
-          <a:ext cx="930088" cy="1154206"/>
-        </a:xfrm>
-        <a:prstGeom prst="smileyFace">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>537882</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>212912</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>33619</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="10824882" y="851647"/>
-          <a:ext cx="2095501" cy="336178"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>470647</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>168088</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>560294</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8337176" y="941294"/>
-          <a:ext cx="1905000" cy="291353"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Straight Connector 2"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2924175" y="1009650"/>
-          <a:ext cx="2714625" cy="1190625"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>152404</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Straight Connector 4"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5943600" y="695325"/>
-          <a:ext cx="304804" cy="333375"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Smiley Face 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1362075" y="904875"/>
-          <a:ext cx="1085850" cy="1181100"/>
-        </a:xfrm>
-        <a:prstGeom prst="smileyFace">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Straight Connector 3"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2114550" y="600075"/>
-          <a:ext cx="3990975" cy="657225"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Straight Connector 4"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2266950" y="1057275"/>
-          <a:ext cx="6229350" cy="352426"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Straight Connector 6"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2266950" y="1714501"/>
-          <a:ext cx="3810000" cy="923924"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Straight Connector 8"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2209800" y="1581150"/>
-          <a:ext cx="6305550" cy="600075"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -3701,7 +4777,7 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:F20"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3875,49 +4951,49 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1"/>
-      <c r="B16" s="89" t="s">
+      <c r="B16" s="92" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="89"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
       <c r="G16" s="28"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1"/>
-      <c r="B17" s="89"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="89"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1"/>
-      <c r="B18" s="89"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="89"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1"/>
-      <c r="B19" s="89"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="89"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1"/>
-      <c r="B20" s="89"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="89"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" ht="41.25" customHeight="1">
@@ -4033,6 +5109,584 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:M16"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3" spans="2:13">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="2:13" ht="15.75" thickBot="1">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="E6" s="4"/>
+      <c r="F6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="E7" s="4"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="E8" s="4"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="E9" s="4"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="2:13" ht="15.75" thickBot="1">
+      <c r="E10" s="4"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="2:13" ht="15.75" thickBot="1">
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="M15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="15.75" thickBot="1">
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:M20"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="3:13">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="K2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+    </row>
+    <row r="3" spans="3:13" ht="15.75" thickBot="1">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+    </row>
+    <row r="4" spans="3:13" ht="15.75" thickBot="1">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="K4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="14"/>
+    </row>
+    <row r="5" spans="3:13">
+      <c r="C5" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="14"/>
+    </row>
+    <row r="6" spans="3:13">
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="14"/>
+    </row>
+    <row r="7" spans="3:13">
+      <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="14"/>
+    </row>
+    <row r="8" spans="3:13" ht="15.75" thickBot="1">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="14"/>
+    </row>
+    <row r="9" spans="3:13">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+    </row>
+    <row r="10" spans="3:13">
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+    </row>
+    <row r="11" spans="3:13">
+      <c r="H11" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="20"/>
+    </row>
+    <row r="12" spans="3:13">
+      <c r="H12" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="20"/>
+      <c r="K12" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+    </row>
+    <row r="13" spans="3:13" ht="15.75" thickBot="1">
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+    </row>
+    <row r="14" spans="3:13" ht="15.75" thickBot="1">
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14" s="14"/>
+    </row>
+    <row r="15" spans="3:13">
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="14"/>
+    </row>
+    <row r="16" spans="3:13">
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="14"/>
+    </row>
+    <row r="17" spans="11:13">
+      <c r="K17" s="14"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="14"/>
+    </row>
+    <row r="18" spans="11:13" ht="15.75" thickBot="1">
+      <c r="K18" s="14"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="14"/>
+    </row>
+    <row r="19" spans="11:13">
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+    </row>
+    <row r="20" spans="11:13">
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E2:S7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="14" max="14" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="5:19">
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+    </row>
+    <row r="3" spans="5:19">
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+    </row>
+    <row r="4" spans="5:19" ht="54.75" customHeight="1">
+      <c r="E4" s="22"/>
+      <c r="F4" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="22"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="94" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="94"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="14"/>
+      <c r="Q4" s="93" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" s="93"/>
+      <c r="S4" s="93"/>
+    </row>
+    <row r="5" spans="5:19">
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+    </row>
+    <row r="6" spans="5:19">
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+    </row>
+    <row r="7" spans="5:19">
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="J4:K4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="H2:Q16"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="8:17" ht="28.5">
+      <c r="O2" s="31"/>
+      <c r="P2" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="31"/>
+    </row>
+    <row r="3" spans="8:17">
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+    </row>
+    <row r="4" spans="8:17">
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+    </row>
+    <row r="5" spans="8:17">
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+    </row>
+    <row r="6" spans="8:17">
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+    </row>
+    <row r="7" spans="8:17">
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+    </row>
+    <row r="8" spans="8:17">
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+    </row>
+    <row r="9" spans="8:17">
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+    </row>
+    <row r="10" spans="8:17" ht="26.25">
+      <c r="H10" s="27"/>
+      <c r="I10" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+    </row>
+    <row r="11" spans="8:17">
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+    </row>
+    <row r="12" spans="8:17">
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+    </row>
+    <row r="13" spans="8:17" ht="26.25">
+      <c r="H13" s="27"/>
+      <c r="I13" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="M13" s="95" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" s="95"/>
+    </row>
+    <row r="14" spans="8:17">
+      <c r="H14" s="27"/>
+      <c r="I14" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+    </row>
+    <row r="15" spans="8:17">
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+    </row>
+    <row r="16" spans="8:17">
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="M13:N13"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="I14" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R17"/>
   <sheetViews>
@@ -4328,7 +5982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:P13"/>
   <sheetViews>
@@ -4453,7 +6107,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N16"/>
   <sheetViews>
@@ -4649,7 +6303,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:S22"/>
   <sheetViews>
@@ -4881,7 +6535,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:P16"/>
   <sheetViews>
@@ -4963,7 +6617,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:Q20"/>
   <sheetViews>
@@ -5144,7 +6798,238 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:R17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:18">
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+    </row>
+    <row r="2" spans="2:18">
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+    </row>
+    <row r="3" spans="2:18">
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+    </row>
+    <row r="4" spans="2:18">
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+    </row>
+    <row r="5" spans="2:18">
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+    </row>
+    <row r="6" spans="2:18">
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+    </row>
+    <row r="7" spans="2:18">
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="46"/>
+    </row>
+    <row r="8" spans="2:18">
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="98"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46"/>
+    </row>
+    <row r="9" spans="2:18">
+      <c r="B9" s="24"/>
+      <c r="C9" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="98"/>
+      <c r="J9" s="98"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
+    </row>
+    <row r="10" spans="2:18" ht="23.25">
+      <c r="B10" s="24"/>
+      <c r="C10" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="98"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
+    </row>
+    <row r="11" spans="2:18">
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="98"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="2:18">
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="98" t="s">
+        <v>105</v>
+      </c>
+      <c r="J12" s="98"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="2:18">
+      <c r="B13" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="2:18">
+      <c r="B14" s="24"/>
+      <c r="C14" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="98"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="2:18">
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="2:18">
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="7:12">
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="98"/>
+      <c r="J17" s="98"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:S18"/>
   <sheetViews>
@@ -5161,12 +7046,12 @@
       </c>
       <c r="L2" s="59"/>
       <c r="M2" s="60"/>
-      <c r="N2" s="93" t="s">
+      <c r="N2" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
       <c r="R2" s="60"/>
       <c r="S2" s="61"/>
     </row>
@@ -5367,7 +7252,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:R13"/>
   <sheetViews>
@@ -5543,7 +7428,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:S14"/>
   <sheetViews>
@@ -5554,20 +7439,20 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="4:19" ht="23.25" customHeight="1">
-      <c r="J2" s="94" t="s">
+      <c r="J2" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
     </row>
     <row r="3" spans="4:19" ht="21">
       <c r="D3" s="77" t="s">
         <v>65</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
     </row>
     <row r="4" spans="4:19" ht="26.25">
       <c r="D4" s="4"/>
@@ -5682,7 +7567,618 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:P28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="6:16">
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+    </row>
+    <row r="6" spans="6:16">
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+    </row>
+    <row r="7" spans="6:16">
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+    </row>
+    <row r="8" spans="6:16">
+      <c r="F8" s="24"/>
+      <c r="G8" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="N8" s="100"/>
+      <c r="O8" s="100"/>
+      <c r="P8" s="100"/>
+    </row>
+    <row r="9" spans="6:16">
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="N9" s="100"/>
+      <c r="O9" s="100"/>
+      <c r="P9" s="100"/>
+    </row>
+    <row r="10" spans="6:16">
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="N10" s="100"/>
+      <c r="O10" s="100" t="s">
+        <v>111</v>
+      </c>
+      <c r="P10" s="100"/>
+    </row>
+    <row r="11" spans="6:16">
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="N11" s="100"/>
+      <c r="O11" s="100"/>
+      <c r="P11" s="100"/>
+    </row>
+    <row r="12" spans="6:16">
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="N12" s="100"/>
+      <c r="O12" s="100"/>
+      <c r="P12" s="100"/>
+    </row>
+    <row r="13" spans="6:16">
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="N13" s="100"/>
+      <c r="O13" s="100"/>
+      <c r="P13" s="100"/>
+    </row>
+    <row r="14" spans="6:16">
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+    </row>
+    <row r="15" spans="6:16">
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+    </row>
+    <row r="16" spans="6:16">
+      <c r="O16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15">
+      <c r="F19" s="50"/>
+      <c r="G19" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="F20" s="50"/>
+      <c r="G20" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="F21" s="50"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="O21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+    </row>
+    <row r="23" spans="2:15">
+      <c r="F23" s="50"/>
+      <c r="G23" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="O23" s="101" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="O24" s="101" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="O25" s="101" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15">
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+    </row>
+    <row r="28" spans="2:15">
+      <c r="B28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E3:O25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3" spans="5:15">
+      <c r="E3" s="50"/>
+      <c r="F3" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+    </row>
+    <row r="4" spans="5:15">
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+    </row>
+    <row r="5" spans="5:15">
+      <c r="E5" s="50"/>
+      <c r="F5" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+    </row>
+    <row r="6" spans="5:15">
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+    </row>
+    <row r="7" spans="5:15">
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
+      <c r="N7" s="103"/>
+    </row>
+    <row r="8" spans="5:15">
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="103"/>
+    </row>
+    <row r="9" spans="5:15">
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="K9" s="103"/>
+      <c r="L9" s="103"/>
+      <c r="M9" s="103"/>
+      <c r="N9" s="103"/>
+    </row>
+    <row r="10" spans="5:15">
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="K10" s="103"/>
+      <c r="L10" s="103"/>
+      <c r="M10" s="103"/>
+      <c r="N10" s="103"/>
+    </row>
+    <row r="11" spans="5:15">
+      <c r="K11" s="103"/>
+      <c r="L11" s="103"/>
+      <c r="M11" s="103"/>
+      <c r="N11" s="103"/>
+    </row>
+    <row r="12" spans="5:15">
+      <c r="E12" s="14"/>
+      <c r="F12" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="K12" s="103"/>
+      <c r="L12" s="103"/>
+      <c r="M12" s="103"/>
+      <c r="N12" s="103"/>
+      <c r="O12" s="104" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="5:15">
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="103"/>
+      <c r="M13" s="103"/>
+      <c r="N13" s="103"/>
+    </row>
+    <row r="14" spans="5:15">
+      <c r="E14" s="14"/>
+      <c r="F14" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="K14" s="103"/>
+      <c r="L14" s="103"/>
+      <c r="M14" s="103"/>
+      <c r="N14" s="103"/>
+    </row>
+    <row r="15" spans="5:15">
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="K15" s="103"/>
+      <c r="L15" s="103"/>
+      <c r="M15" s="103"/>
+      <c r="N15" s="103"/>
+    </row>
+    <row r="16" spans="5:15">
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="K16" s="103"/>
+      <c r="L16" s="103" t="s">
+        <v>120</v>
+      </c>
+      <c r="M16" s="103"/>
+      <c r="N16" s="103"/>
+    </row>
+    <row r="17" spans="5:14">
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="K17" s="103"/>
+      <c r="L17" s="103"/>
+      <c r="M17" s="103"/>
+      <c r="N17" s="103"/>
+    </row>
+    <row r="18" spans="5:14">
+      <c r="K18" s="103"/>
+      <c r="L18" s="103" t="s">
+        <v>122</v>
+      </c>
+      <c r="M18" s="103"/>
+      <c r="N18" s="103"/>
+    </row>
+    <row r="19" spans="5:14">
+      <c r="K19" s="103"/>
+      <c r="L19" s="103"/>
+      <c r="M19" s="103"/>
+      <c r="N19" s="103"/>
+    </row>
+    <row r="20" spans="5:14">
+      <c r="E20" s="71"/>
+      <c r="F20" s="71" t="s">
+        <v>125</v>
+      </c>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="K20" s="103"/>
+      <c r="L20" s="103" t="s">
+        <v>127</v>
+      </c>
+      <c r="M20" s="103"/>
+      <c r="N20" s="103"/>
+    </row>
+    <row r="21" spans="5:14">
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+      <c r="K21" s="103"/>
+      <c r="L21" s="103"/>
+      <c r="M21" s="103"/>
+      <c r="N21" s="103"/>
+    </row>
+    <row r="22" spans="5:14">
+      <c r="E22" s="71"/>
+      <c r="F22" s="71" t="s">
+        <v>119</v>
+      </c>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="K22" s="103"/>
+      <c r="L22" s="103"/>
+      <c r="M22" s="103"/>
+      <c r="N22" s="103"/>
+    </row>
+    <row r="23" spans="5:14">
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+    </row>
+    <row r="24" spans="5:14">
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+    </row>
+    <row r="25" spans="5:14">
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="O12" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="F5:L23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="6:12">
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103" t="s">
+        <v>128</v>
+      </c>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
+    </row>
+    <row r="6" spans="6:12">
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+    </row>
+    <row r="7" spans="6:12">
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+    </row>
+    <row r="8" spans="6:12">
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103" t="s">
+        <v>129</v>
+      </c>
+      <c r="L8" s="103"/>
+    </row>
+    <row r="9" spans="6:12">
+      <c r="F9" s="103"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="103"/>
+      <c r="J9" s="103"/>
+      <c r="K9" s="103" t="s">
+        <v>130</v>
+      </c>
+      <c r="L9" s="103"/>
+    </row>
+    <row r="10" spans="6:12">
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="103"/>
+      <c r="J10" s="103"/>
+      <c r="K10" s="103"/>
+      <c r="L10" s="103"/>
+    </row>
+    <row r="11" spans="6:12">
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103" t="s">
+        <v>131</v>
+      </c>
+      <c r="I11" s="103"/>
+      <c r="J11" s="103"/>
+      <c r="K11" s="103"/>
+      <c r="L11" s="103"/>
+    </row>
+    <row r="12" spans="6:12">
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103" t="s">
+        <v>132</v>
+      </c>
+      <c r="I12" s="103"/>
+      <c r="J12" s="103"/>
+      <c r="K12" s="103"/>
+      <c r="L12" s="103"/>
+    </row>
+    <row r="13" spans="6:12">
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="103"/>
+    </row>
+    <row r="14" spans="6:12">
+      <c r="F14" s="103"/>
+      <c r="G14" s="103" t="s">
+        <v>129</v>
+      </c>
+      <c r="H14" s="103"/>
+      <c r="I14" s="103"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="103"/>
+      <c r="L14" s="103"/>
+    </row>
+    <row r="15" spans="6:12">
+      <c r="F15" s="103"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="103" t="s">
+        <v>133</v>
+      </c>
+      <c r="L15" s="103"/>
+    </row>
+    <row r="16" spans="6:12">
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="103" t="s">
+        <v>134</v>
+      </c>
+      <c r="I16" s="103"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="103"/>
+      <c r="L16" s="103"/>
+    </row>
+    <row r="17" spans="6:12">
+      <c r="F17" s="103"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="103"/>
+      <c r="J17" s="103"/>
+      <c r="K17" s="103"/>
+      <c r="L17" s="103"/>
+    </row>
+    <row r="18" spans="6:12">
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="103"/>
+      <c r="J18" s="103"/>
+      <c r="K18" s="103"/>
+      <c r="L18" s="103"/>
+    </row>
+    <row r="19" spans="6:12">
+      <c r="F19" s="103"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="103"/>
+      <c r="J19" s="103"/>
+      <c r="K19" s="103"/>
+      <c r="L19" s="103"/>
+    </row>
+    <row r="21" spans="6:12">
+      <c r="I21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="6:12">
+      <c r="I22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="6:12">
+      <c r="I23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:K13"/>
   <sheetViews>
@@ -5764,7 +8260,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:K17"/>
   <sheetViews>
@@ -5782,8 +8278,8 @@
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="2:11">
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -5794,8 +8290,8 @@
       <c r="B8" t="s">
         <v>97</v>
       </c>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -5806,10 +8302,10 @@
       <c r="B9" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="95" t="s">
+      <c r="D9" s="89" t="s">
         <v>96</v>
       </c>
-      <c r="E9" s="95"/>
+      <c r="E9" s="89"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -5820,8 +8316,8 @@
       <c r="B10" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4" t="s">
         <v>95</v>
@@ -5831,10 +8327,10 @@
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="2:11">
-      <c r="D11" s="95" t="s">
+      <c r="D11" s="89" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="95"/>
+      <c r="E11" s="89"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -5842,10 +8338,10 @@
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="2:11">
-      <c r="D12" s="95" t="s">
+      <c r="D12" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="E12" s="95"/>
+      <c r="E12" s="89"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -5853,8 +8349,8 @@
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="2:11">
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -5862,8 +8358,8 @@
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="2:11">
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -5871,8 +8367,8 @@
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="2:11">
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -5898,18 +8394,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="6:14" ht="21.75" thickBot="1">
-      <c r="G1" s="97" t="s">
+      <c r="G1" s="91" t="s">
         <v>100</v>
       </c>
     </row>
@@ -5937,14 +8433,14 @@
     </row>
     <row r="4" spans="6:14">
       <c r="F4" s="38"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96" t="s">
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90" t="s">
         <v>101</v>
       </c>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
       <c r="M4" s="39"/>
       <c r="N4" s="40">
         <v>80</v>
@@ -5952,12 +8448,12 @@
     </row>
     <row r="5" spans="6:14">
       <c r="F5" s="38"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
-      <c r="K5" s="96"/>
-      <c r="L5" s="96"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
       <c r="M5" s="39"/>
       <c r="N5" s="40">
         <v>81</v>
@@ -5965,14 +8461,14 @@
     </row>
     <row r="6" spans="6:14">
       <c r="F6" s="38"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96" t="s">
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90" t="s">
         <v>102</v>
       </c>
-      <c r="J6" s="96"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96">
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="90">
         <v>80</v>
       </c>
       <c r="M6" s="39"/>
@@ -5982,12 +8478,12 @@
     </row>
     <row r="7" spans="6:14">
       <c r="F7" s="38"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="96">
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90">
         <v>81</v>
       </c>
       <c r="M7" s="39"/>
@@ -5997,12 +8493,12 @@
     </row>
     <row r="8" spans="6:14">
       <c r="F8" s="38"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="96"/>
-      <c r="K8" s="96"/>
-      <c r="L8" s="96">
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="90">
         <v>82</v>
       </c>
       <c r="M8" s="39"/>
@@ -6012,12 +8508,12 @@
     </row>
     <row r="9" spans="6:14">
       <c r="F9" s="38"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="96"/>
-      <c r="J9" s="96"/>
-      <c r="K9" s="96"/>
-      <c r="L9" s="96">
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="90">
         <v>83</v>
       </c>
       <c r="M9" s="39"/>
@@ -6027,12 +8523,12 @@
     </row>
     <row r="10" spans="6:14">
       <c r="F10" s="38"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="96"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="96">
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="90">
         <v>84</v>
       </c>
       <c r="M10" s="39"/>
@@ -6042,12 +8538,12 @@
     </row>
     <row r="11" spans="6:14">
       <c r="F11" s="38"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="96"/>
-      <c r="I11" s="96"/>
-      <c r="J11" s="96"/>
-      <c r="K11" s="96"/>
-      <c r="L11" s="96"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="90"/>
       <c r="M11" s="39"/>
       <c r="N11" s="40">
         <v>87</v>
@@ -6081,14 +8577,14 @@
     </row>
     <row r="14" spans="6:14">
       <c r="F14" s="38"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="96" t="s">
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90" t="s">
         <v>104</v>
       </c>
-      <c r="J14" s="96"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="96"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="90"/>
       <c r="M14" s="39"/>
       <c r="N14" s="40">
         <v>90</v>
@@ -6096,12 +8592,12 @@
     </row>
     <row r="15" spans="6:14">
       <c r="F15" s="38"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="96"/>
-      <c r="I15" s="96"/>
-      <c r="J15" s="96"/>
-      <c r="K15" s="96"/>
-      <c r="L15" s="96"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="90"/>
       <c r="M15" s="39"/>
       <c r="N15" s="40">
         <v>91</v>
@@ -6109,14 +8605,14 @@
     </row>
     <row r="16" spans="6:14">
       <c r="F16" s="38"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="96" t="s">
+      <c r="G16" s="90"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="90" t="s">
         <v>103</v>
       </c>
-      <c r="J16" s="96"/>
-      <c r="K16" s="96"/>
-      <c r="L16" s="96">
+      <c r="J16" s="90"/>
+      <c r="K16" s="90"/>
+      <c r="L16" s="90">
         <v>80</v>
       </c>
       <c r="M16" s="39"/>
@@ -6126,12 +8622,12 @@
     </row>
     <row r="17" spans="6:14">
       <c r="F17" s="38"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="96"/>
-      <c r="K17" s="96"/>
-      <c r="L17" s="96">
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="90">
         <v>81</v>
       </c>
       <c r="M17" s="39"/>
@@ -6141,12 +8637,12 @@
     </row>
     <row r="18" spans="6:14">
       <c r="F18" s="38"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="96"/>
-      <c r="K18" s="96"/>
-      <c r="L18" s="96">
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="90"/>
+      <c r="L18" s="90">
         <v>82</v>
       </c>
       <c r="M18" s="39"/>
@@ -6156,12 +8652,12 @@
     </row>
     <row r="19" spans="6:14">
       <c r="F19" s="38"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="96"/>
-      <c r="K19" s="96"/>
-      <c r="L19" s="96">
+      <c r="G19" s="90"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="90"/>
+      <c r="J19" s="90"/>
+      <c r="K19" s="90"/>
+      <c r="L19" s="90">
         <v>83</v>
       </c>
       <c r="M19" s="39"/>
@@ -6171,12 +8667,12 @@
     </row>
     <row r="20" spans="6:14">
       <c r="F20" s="38"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="96"/>
-      <c r="J20" s="96"/>
-      <c r="K20" s="96"/>
-      <c r="L20" s="96">
+      <c r="G20" s="90"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="90"/>
+      <c r="J20" s="90"/>
+      <c r="K20" s="90"/>
+      <c r="L20" s="90">
         <v>84</v>
       </c>
       <c r="M20" s="39"/>
@@ -6186,12 +8682,12 @@
     </row>
     <row r="21" spans="6:14">
       <c r="F21" s="38"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="96"/>
-      <c r="J21" s="96"/>
-      <c r="K21" s="96"/>
-      <c r="L21" s="96"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="90"/>
+      <c r="L21" s="90"/>
       <c r="M21" s="39"/>
       <c r="N21" s="40"/>
     </row>
@@ -6212,7 +8708,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:M15"/>
   <sheetViews>
@@ -6375,582 +8871,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:M16"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="3" spans="2:13">
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13">
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="2:13" ht="15.75" thickBot="1">
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="2:13">
-      <c r="E6" s="4"/>
-      <c r="F6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="2:13">
-      <c r="E7" s="4"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="2:13">
-      <c r="E8" s="4"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="2:13">
-      <c r="E9" s="4"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="2:13" ht="15.75" thickBot="1">
-      <c r="E10" s="4"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="2:13" ht="15.75" thickBot="1">
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="2:13">
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="2:13">
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="2:13">
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-    </row>
-    <row r="15" spans="2:13">
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="M15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" ht="15.75" thickBot="1">
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:M20"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="2" spans="3:13">
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="K2" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-    </row>
-    <row r="3" spans="3:13" ht="15.75" thickBot="1">
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-    </row>
-    <row r="4" spans="3:13" ht="15.75" thickBot="1">
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="K4" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="14"/>
-    </row>
-    <row r="5" spans="3:13">
-      <c r="C5" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="14"/>
-    </row>
-    <row r="6" spans="3:13">
-      <c r="C6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="14"/>
-    </row>
-    <row r="7" spans="3:13">
-      <c r="C7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="14"/>
-    </row>
-    <row r="8" spans="3:13" ht="15.75" thickBot="1">
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="14"/>
-    </row>
-    <row r="9" spans="3:13">
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-    </row>
-    <row r="10" spans="3:13">
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-    </row>
-    <row r="11" spans="3:13">
-      <c r="H11" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="20"/>
-    </row>
-    <row r="12" spans="3:13">
-      <c r="H12" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="20"/>
-      <c r="K12" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-    </row>
-    <row r="13" spans="3:13" ht="15.75" thickBot="1">
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-    </row>
-    <row r="14" spans="3:13" ht="15.75" thickBot="1">
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="M14" s="14"/>
-    </row>
-    <row r="15" spans="3:13">
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="14"/>
-    </row>
-    <row r="16" spans="3:13">
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="14"/>
-    </row>
-    <row r="17" spans="11:13">
-      <c r="K17" s="14"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="14"/>
-    </row>
-    <row r="18" spans="11:13" ht="15.75" thickBot="1">
-      <c r="K18" s="14"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="14"/>
-    </row>
-    <row r="19" spans="11:13">
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-    </row>
-    <row r="20" spans="11:13">
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E2:S7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="14" max="14" width="20.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="5:19">
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-    </row>
-    <row r="3" spans="5:19">
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-    </row>
-    <row r="4" spans="5:19" ht="54.75" customHeight="1">
-      <c r="E4" s="22"/>
-      <c r="F4" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="22"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="91" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="91"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="O4" s="14"/>
-      <c r="Q4" s="90" t="s">
-        <v>15</v>
-      </c>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
-    </row>
-    <row r="5" spans="5:19">
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-    </row>
-    <row r="6" spans="5:19">
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-    </row>
-    <row r="7" spans="5:19">
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="J4:K4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="H2:Q16"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="2" spans="8:17" ht="28.5">
-      <c r="O2" s="31"/>
-      <c r="P2" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q2" s="31"/>
-    </row>
-    <row r="3" spans="8:17">
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-    </row>
-    <row r="4" spans="8:17">
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-    </row>
-    <row r="5" spans="8:17">
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-    </row>
-    <row r="6" spans="8:17">
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-    </row>
-    <row r="7" spans="8:17">
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-    </row>
-    <row r="8" spans="8:17">
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-    </row>
-    <row r="9" spans="8:17">
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-    </row>
-    <row r="10" spans="8:17" ht="26.25">
-      <c r="H10" s="27"/>
-      <c r="I10" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-    </row>
-    <row r="11" spans="8:17">
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-    </row>
-    <row r="12" spans="8:17">
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-    </row>
-    <row r="13" spans="8:17" ht="26.25">
-      <c r="H13" s="27"/>
-      <c r="I13" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="M13" s="92" t="s">
-        <v>19</v>
-      </c>
-      <c r="N13" s="92"/>
-    </row>
-    <row r="14" spans="8:17">
-      <c r="H14" s="27"/>
-      <c r="I14" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-    </row>
-    <row r="15" spans="8:17">
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-    </row>
-    <row r="16" spans="8:17">
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="M13:N13"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="I14" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/Whiteboard.xlsx
+++ b/Whiteboard.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9195" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9195" firstSheet="18" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,10 +30,18 @@
     <sheet name="Sheet9" sheetId="11" r:id="rId16"/>
     <sheet name="Sheet11" sheetId="13" r:id="rId17"/>
     <sheet name="Sheet12" sheetId="14" r:id="rId18"/>
-    <sheet name="Ansible" sheetId="15" r:id="rId19"/>
-    <sheet name="Terraform" sheetId="16" r:id="rId20"/>
-    <sheet name="Sheet14" sheetId="19" r:id="rId21"/>
-    <sheet name="Sheet4" sheetId="21" r:id="rId22"/>
+    <sheet name="Sheet18" sheetId="30" r:id="rId19"/>
+    <sheet name="Sheet19" sheetId="31" r:id="rId20"/>
+    <sheet name="Ansible" sheetId="15" r:id="rId21"/>
+    <sheet name="Sheet20" sheetId="32" r:id="rId22"/>
+    <sheet name="Sheet21" sheetId="33" r:id="rId23"/>
+    <sheet name="Sheet22" sheetId="34" r:id="rId24"/>
+    <sheet name="Sheet23" sheetId="35" r:id="rId25"/>
+    <sheet name="Sheet24" sheetId="36" r:id="rId26"/>
+    <sheet name="Sheet25" sheetId="37" r:id="rId27"/>
+    <sheet name="Terraform" sheetId="16" r:id="rId28"/>
+    <sheet name="Sheet14" sheetId="19" r:id="rId29"/>
+    <sheet name="Sheet4" sheetId="21" r:id="rId30"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$27</definedName>
@@ -48,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="189">
   <si>
     <t>master</t>
   </si>
@@ -560,6 +568,159 @@
   </si>
   <si>
     <t>Text Analytics</t>
+  </si>
+  <si>
+    <t>Azure Devops</t>
+  </si>
+  <si>
+    <t>Artifacts</t>
+  </si>
+  <si>
+    <t>Visual Studio</t>
+  </si>
+  <si>
+    <t>- Create package</t>
+  </si>
+  <si>
+    <t>- Use Package</t>
+  </si>
+  <si>
+    <t>Senior Developer</t>
+  </si>
+  <si>
+    <t>Project to be tested</t>
+  </si>
+  <si>
+    <t>Test My Web Project</t>
+  </si>
+  <si>
+    <t>- Run the project</t>
+  </si>
+  <si>
+    <t>My System</t>
+  </si>
+  <si>
+    <t>1. Create App Service web app</t>
+  </si>
+  <si>
+    <t>2. Create a profile to Publish the project</t>
+  </si>
+  <si>
+    <t>3. Run Profile - contains the deployment details</t>
+  </si>
+  <si>
+    <t>Create Storage account</t>
+  </si>
+  <si>
+    <t>Deploy my static website to storage</t>
+  </si>
+  <si>
+    <t>IAAS</t>
+  </si>
+  <si>
+    <t>Infra as a service</t>
+  </si>
+  <si>
+    <t>AWS, Azure, Googgle. amy cloud</t>
+  </si>
+  <si>
+    <t>ARM templates  - Specific to Azure</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Terraform script</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ' - Code to create storage a/c</t>
+  </si>
+  <si>
+    <t>For Creation of Infra</t>
+  </si>
+  <si>
+    <t>Configuring existing infra</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Ansible Host</t>
+  </si>
+  <si>
+    <t>ssh key</t>
+  </si>
+  <si>
+    <t>pub key</t>
+  </si>
+  <si>
+    <t>17.17.0.2</t>
+  </si>
+  <si>
+    <t>17.17.0.3</t>
+  </si>
+  <si>
+    <t>17.17.0.4</t>
+  </si>
+  <si>
+    <t>ansible-host</t>
+  </si>
+  <si>
+    <t>ACR</t>
+  </si>
+  <si>
+    <t>Dot Net Core Project</t>
+  </si>
+  <si>
+    <t>dotnet-core</t>
+  </si>
+  <si>
+    <t>dotnet-core.dll</t>
+  </si>
+  <si>
+    <t>Teams / Communication Channel</t>
+  </si>
+  <si>
+    <t>Azure Boards</t>
+  </si>
+  <si>
+    <t>Git Hub</t>
+  </si>
+  <si>
+    <t>When a commit is done, close a ticket</t>
+  </si>
+  <si>
+    <t>Task 1</t>
+  </si>
+  <si>
+    <t>Commit 1</t>
+  </si>
+  <si>
+    <t>Task 2</t>
+  </si>
+  <si>
+    <t>Azure Devops Project</t>
+  </si>
+  <si>
+    <t>Azoure Provided VM</t>
+  </si>
+  <si>
+    <t>My Own VM</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>Self Hosted Agent</t>
+  </si>
+  <si>
+    <t>Azure Provided Agent</t>
+  </si>
+  <si>
+    <t>1 pipeline</t>
+  </si>
+  <si>
+    <t>win</t>
   </si>
 </sst>
 </file>
@@ -765,7 +926,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -889,6 +1050,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1023,7 +1190,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1152,6 +1319,13 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1170,13 +1344,11 @@
     <xf numFmtId="0" fontId="17" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1932,30 +2104,221 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Straight Connector 2"/>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3457575" y="1133475"/>
-          <a:ext cx="3933825" cy="1181100"/>
+        <a:xfrm flipH="1">
+          <a:off x="7724775" y="381000"/>
+          <a:ext cx="666750" cy="9525"/>
         </a:xfrm>
-        <a:prstGeom prst="line">
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2190750" y="1457325"/>
+          <a:ext cx="2219326" cy="1666875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2514600" y="1466850"/>
+          <a:ext cx="4572000" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2838450" y="1333500"/>
+          <a:ext cx="6686550" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2428875" y="476250"/>
+          <a:ext cx="3762375" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -1981,16 +2344,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1999,8 +2362,574 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2981325" y="1095375"/>
-          <a:ext cx="3038475" cy="352425"/>
+          <a:off x="4229100" y="1123950"/>
+          <a:ext cx="1485900" cy="47625"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Connector 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4962525" y="1752600"/>
+          <a:ext cx="1390650" cy="1457325"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3743325" y="1152525"/>
+          <a:ext cx="3514725" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Oval 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8201025" y="400050"/>
+          <a:ext cx="666750" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Oval 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9144000" y="1143000"/>
+          <a:ext cx="666750" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Oval 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10077450" y="2114550"/>
+          <a:ext cx="666750" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Smiley Face 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2562225" y="1638300"/>
+          <a:ext cx="1181100" cy="1285875"/>
+        </a:xfrm>
+        <a:prstGeom prst="smileyFace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>185738</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="2" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3714750" y="757238"/>
+          <a:ext cx="4486275" cy="1223962"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38257</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>97643</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="3" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3771900" y="1752757"/>
+          <a:ext cx="5469743" cy="561818"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3905250" y="2486025"/>
+          <a:ext cx="6305550" cy="76200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3219450" y="781050"/>
+          <a:ext cx="2933700" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3200400" y="762000"/>
+          <a:ext cx="2800350" cy="47625"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2029,25 +2958,72 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6791325" y="1181101"/>
-          <a:ext cx="2838450" cy="333374"/>
+          <a:off x="7153275" y="1724025"/>
+          <a:ext cx="19050" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7715250" y="1057275"/>
+          <a:ext cx="447675" cy="1809750"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2519,6 +3495,206 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2390775" y="1323975"/>
+          <a:ext cx="6086475" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3457575" y="1133475"/>
+          <a:ext cx="3933825" cy="1181100"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2981325" y="1095375"/>
+          <a:ext cx="3038475" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6791325" y="1181101"/>
+          <a:ext cx="2838450" cy="333374"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4777,7 +5953,7 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B16" sqref="B16:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4951,49 +6127,49 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1"/>
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="99" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
       <c r="G16" s="28"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1"/>
-      <c r="B17" s="92"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1"/>
-      <c r="B18" s="92"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="92"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1"/>
-      <c r="B19" s="92"/>
-      <c r="C19" s="92"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1"/>
-      <c r="B20" s="92"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="92"/>
+      <c r="B20" s="99"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="99"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" ht="41.25" customHeight="1">
@@ -5480,20 +6656,20 @@
       </c>
       <c r="G4" s="22"/>
       <c r="I4" s="24"/>
-      <c r="J4" s="94" t="s">
+      <c r="J4" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="94"/>
+      <c r="K4" s="101"/>
       <c r="M4" s="14"/>
       <c r="N4" s="26" t="s">
         <v>16</v>
       </c>
       <c r="O4" s="14"/>
-      <c r="Q4" s="93" t="s">
+      <c r="Q4" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="R4" s="93"/>
-      <c r="S4" s="93"/>
+      <c r="R4" s="100"/>
+      <c r="S4" s="100"/>
     </row>
     <row r="5" spans="5:19">
       <c r="E5" s="22"/>
@@ -5643,10 +6819,10 @@
       </c>
       <c r="J13" s="27"/>
       <c r="K13" s="27"/>
-      <c r="M13" s="95" t="s">
+      <c r="M13" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="N13" s="95"/>
+      <c r="N13" s="102"/>
     </row>
     <row r="14" spans="8:17">
       <c r="H14" s="27"/>
@@ -6540,7 +7716,7 @@
   <dimension ref="D2:P16"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6619,182 +7795,198 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:Q20"/>
+  <dimension ref="C2:Q23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:N6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="3:17">
-      <c r="M1" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="N1" s="22"/>
-    </row>
     <row r="2" spans="3:17">
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
+      <c r="K2" s="94" t="s">
+        <v>140</v>
+      </c>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
     </row>
     <row r="3" spans="3:17">
-      <c r="M3" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" s="22" t="s">
-        <v>43</v>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="O3" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="3:17">
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="M4" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="N4" s="22"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="K4" s="106" t="s">
+        <v>141</v>
+      </c>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
     </row>
     <row r="5" spans="3:17">
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="P5" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q5" s="22"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
     </row>
     <row r="6" spans="3:17">
-      <c r="C6" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
     </row>
     <row r="7" spans="3:17">
-      <c r="C7" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22" t="s">
-        <v>39</v>
-      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="94"/>
+      <c r="M7" s="94"/>
     </row>
     <row r="8" spans="3:17">
-      <c r="C8" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="P8" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q8" s="22"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="3:17">
-      <c r="C9" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22" t="s">
-        <v>43</v>
-      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
     </row>
     <row r="10" spans="3:17">
-      <c r="C10" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="O10" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50"/>
     </row>
     <row r="11" spans="3:17">
-      <c r="C11" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+    </row>
+    <row r="12" spans="3:17">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="K12" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="O12" s="96" t="s">
+        <v>142</v>
+      </c>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+    </row>
+    <row r="13" spans="3:17">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
     </row>
     <row r="14" spans="3:17">
-      <c r="C14" s="57" t="s">
-        <v>53</v>
-      </c>
-      <c r="L14" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="M14" s="22"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="K14" s="96" t="s">
+        <v>142</v>
+      </c>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
     </row>
     <row r="15" spans="3:17">
-      <c r="C15" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="P15" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q15" s="22"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
     </row>
     <row r="16" spans="3:17">
-      <c r="C16" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-    </row>
-    <row r="17" spans="3:17">
-      <c r="C17" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="L17" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="M17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-    </row>
-    <row r="18" spans="3:17">
-      <c r="L18" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="M18" s="22"/>
-      <c r="P18" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q18" s="22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17">
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="P19" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q19" s="22"/>
-    </row>
-    <row r="20" spans="3:17">
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+    </row>
+    <row r="18" spans="8:10">
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+    </row>
+    <row r="19" spans="8:10">
+      <c r="H19" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+    </row>
+    <row r="20" spans="8:10">
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+    </row>
+    <row r="21" spans="8:10">
+      <c r="H21" s="96" t="s">
+        <v>142</v>
+      </c>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+    </row>
+    <row r="22" spans="8:10">
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+    </row>
+    <row r="23" spans="8:10">
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6829,8 +8021,8 @@
     <row r="4" spans="2:18">
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="O4" s="46"/>
@@ -6841,8 +8033,8 @@
     <row r="5" spans="2:18">
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="O5" s="46"/>
@@ -6859,8 +8051,8 @@
       <c r="E6" s="24"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="O6" s="46"/>
@@ -6875,8 +8067,8 @@
       <c r="E7" s="24"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="O7" s="46"/>
@@ -6891,8 +8083,8 @@
       <c r="E8" s="24"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="92"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="O8" s="46"/>
@@ -6909,8 +8101,8 @@
       <c r="E9" s="24"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="98"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="92"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="O9" s="46"/>
@@ -6927,10 +8119,10 @@
       <c r="E10" s="24"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="99" t="s">
+      <c r="I10" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="98"/>
+      <c r="J10" s="92"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="O10" s="46"/>
@@ -6945,8 +8137,8 @@
       <c r="E11" s="24"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="98"/>
-      <c r="J11" s="98"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
@@ -6957,10 +8149,10 @@
       <c r="E12" s="24"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="98" t="s">
+      <c r="I12" s="92" t="s">
         <v>105</v>
       </c>
-      <c r="J12" s="98"/>
+      <c r="J12" s="92"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
@@ -6975,8 +8167,8 @@
       <c r="E13" s="24"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="98"/>
-      <c r="J13" s="98"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
@@ -6989,8 +8181,8 @@
       <c r="E14" s="24"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="98"/>
-      <c r="J14" s="98"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
@@ -7001,24 +8193,24 @@
       <c r="E15" s="24"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="98"/>
-      <c r="J15" s="98"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="92"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
     <row r="16" spans="2:18">
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="98"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="7:12">
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="98"/>
-      <c r="J17" s="98"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="92"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
@@ -7030,6 +8222,1368 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D4:M23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17:K21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="4" spans="4:13">
+      <c r="D4" s="50"/>
+      <c r="E4" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+    </row>
+    <row r="5" spans="4:13">
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+    </row>
+    <row r="6" spans="4:13">
+      <c r="D6" s="50"/>
+      <c r="E6" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+    </row>
+    <row r="7" spans="4:13">
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+    </row>
+    <row r="8" spans="4:13">
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+    </row>
+    <row r="9" spans="4:13">
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="107" t="s">
+        <v>146</v>
+      </c>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+    </row>
+    <row r="10" spans="4:13">
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+    </row>
+    <row r="11" spans="4:13">
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+    </row>
+    <row r="12" spans="4:13">
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+    </row>
+    <row r="13" spans="4:13">
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+    </row>
+    <row r="14" spans="4:13">
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+    </row>
+    <row r="17" spans="6:11">
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+    </row>
+    <row r="18" spans="6:11">
+      <c r="F18" s="22"/>
+      <c r="G18" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+    </row>
+    <row r="19" spans="6:11">
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+    </row>
+    <row r="20" spans="6:11">
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+    </row>
+    <row r="21" spans="6:11">
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+    </row>
+    <row r="22" spans="6:11">
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+    </row>
+    <row r="23" spans="6:11">
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:Q20"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:N6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="3:17">
+      <c r="M1" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="22"/>
+    </row>
+    <row r="2" spans="3:17">
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+    </row>
+    <row r="3" spans="3:17">
+      <c r="M3" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="3:17">
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="22"/>
+    </row>
+    <row r="5" spans="3:17">
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="P5" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" s="22"/>
+    </row>
+    <row r="6" spans="3:17">
+      <c r="C6" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+    </row>
+    <row r="7" spans="3:17">
+      <c r="C7" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="3:17">
+      <c r="C8" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="P8" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q8" s="22"/>
+    </row>
+    <row r="9" spans="3:17">
+      <c r="C9" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="3:17">
+      <c r="C10" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+    </row>
+    <row r="11" spans="3:17">
+      <c r="C11" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+    </row>
+    <row r="14" spans="3:17">
+      <c r="C14" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="L14" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="M14" s="22"/>
+    </row>
+    <row r="15" spans="3:17">
+      <c r="C15" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="P15" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q15" s="22"/>
+    </row>
+    <row r="16" spans="3:17">
+      <c r="C16" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+    </row>
+    <row r="17" spans="3:17">
+      <c r="C17" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="L17" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="M17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+    </row>
+    <row r="18" spans="3:17">
+      <c r="L18" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="M18" s="22"/>
+      <c r="P18" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q18" s="22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17">
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="P19" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q19" s="22"/>
+    </row>
+    <row r="20" spans="3:17">
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D2:Q19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="4:17">
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108"/>
+    </row>
+    <row r="3" spans="4:17">
+      <c r="M3" s="108"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="108"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
+    </row>
+    <row r="4" spans="4:17">
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="M4" s="108"/>
+      <c r="N4" s="108"/>
+      <c r="O4" s="108"/>
+      <c r="P4" s="108"/>
+      <c r="Q4" s="108"/>
+    </row>
+    <row r="5" spans="4:17">
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="M5" s="108"/>
+      <c r="N5" s="108"/>
+      <c r="O5" s="108"/>
+      <c r="P5" s="108"/>
+      <c r="Q5" s="108"/>
+    </row>
+    <row r="6" spans="4:17">
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="M6" s="108"/>
+      <c r="N6" s="108"/>
+      <c r="O6" s="108"/>
+      <c r="P6" s="108"/>
+      <c r="Q6" s="108"/>
+    </row>
+    <row r="7" spans="4:17">
+      <c r="D7" s="22"/>
+      <c r="E7" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="108"/>
+    </row>
+    <row r="8" spans="4:17">
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="M8" s="108"/>
+      <c r="N8" s="108"/>
+      <c r="O8" s="108"/>
+      <c r="P8" s="108"/>
+      <c r="Q8" s="108"/>
+    </row>
+    <row r="9" spans="4:17">
+      <c r="D9" s="22"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="22"/>
+      <c r="M9" s="108"/>
+      <c r="N9" s="108"/>
+      <c r="O9" s="108"/>
+      <c r="P9" s="108"/>
+      <c r="Q9" s="108"/>
+    </row>
+    <row r="10" spans="4:17">
+      <c r="D10" s="22"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="22"/>
+      <c r="I10" t="s">
+        <v>148</v>
+      </c>
+      <c r="M10" s="108"/>
+      <c r="N10" s="108"/>
+      <c r="O10" s="108"/>
+      <c r="P10" s="108"/>
+      <c r="Q10" s="108"/>
+    </row>
+    <row r="11" spans="4:17">
+      <c r="D11" s="22"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="22"/>
+      <c r="I11" t="s">
+        <v>149</v>
+      </c>
+      <c r="M11" s="108"/>
+      <c r="N11" s="108"/>
+      <c r="O11" s="108"/>
+      <c r="P11" s="108"/>
+      <c r="Q11" s="108"/>
+    </row>
+    <row r="12" spans="4:17">
+      <c r="D12" s="22"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="22"/>
+      <c r="I12" t="s">
+        <v>150</v>
+      </c>
+      <c r="M12" s="108"/>
+      <c r="N12" s="108"/>
+      <c r="O12" s="108"/>
+      <c r="P12" s="108"/>
+      <c r="Q12" s="108"/>
+    </row>
+    <row r="13" spans="4:17">
+      <c r="D13" s="22"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="22"/>
+      <c r="M13" s="108"/>
+      <c r="N13" s="108"/>
+      <c r="O13" s="108"/>
+      <c r="P13" s="108"/>
+      <c r="Q13" s="108"/>
+    </row>
+    <row r="14" spans="4:17">
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="M14" s="108"/>
+      <c r="N14" s="108"/>
+      <c r="O14" s="108"/>
+      <c r="P14" s="108"/>
+      <c r="Q14" s="108"/>
+    </row>
+    <row r="15" spans="4:17">
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="M15" s="108"/>
+      <c r="N15" s="108"/>
+      <c r="O15" s="108"/>
+      <c r="P15" s="108"/>
+      <c r="Q15" s="108"/>
+    </row>
+    <row r="16" spans="4:17">
+      <c r="M16" s="108"/>
+      <c r="N16" s="108"/>
+      <c r="O16" s="108"/>
+      <c r="P16" s="108"/>
+      <c r="Q16" s="108"/>
+    </row>
+    <row r="17" spans="13:17">
+      <c r="M17" s="108"/>
+      <c r="N17" s="108"/>
+      <c r="O17" s="108"/>
+      <c r="P17" s="108"/>
+      <c r="Q17" s="108"/>
+    </row>
+    <row r="18" spans="13:17">
+      <c r="M18" s="108"/>
+      <c r="N18" s="108"/>
+      <c r="O18" s="108"/>
+      <c r="P18" s="108"/>
+      <c r="Q18" s="108"/>
+    </row>
+    <row r="19" spans="13:17">
+      <c r="M19" s="108"/>
+      <c r="N19" s="108"/>
+      <c r="O19" s="108"/>
+      <c r="P19" s="108"/>
+      <c r="Q19" s="108"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="2:14">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="31"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+    </row>
+    <row r="3" spans="2:14">
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="B4" s="31"/>
+      <c r="C4" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="31"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" s="31"/>
+      <c r="C5" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="31"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" s="31"/>
+      <c r="C7" s="107" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" s="31"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8" s="31"/>
+      <c r="C8" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" s="31"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" s="109" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" t="s">
+        <v>154</v>
+      </c>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>155</v>
+      </c>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="B15" t="s">
+        <v>156</v>
+      </c>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:S18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3" spans="3:19">
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="3:19">
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>160</v>
+      </c>
+      <c r="P4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="3:19">
+      <c r="J7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="3:19">
+      <c r="F8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="3:19">
+      <c r="G9" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="3:19">
+      <c r="L10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="3:19">
+      <c r="C11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="3:19">
+      <c r="S12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="3:19">
+      <c r="L13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="3:19">
+      <c r="S14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D2:M20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="4:13">
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+    </row>
+    <row r="3" spans="4:13">
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="M3" s="24"/>
+    </row>
+    <row r="4" spans="4:13">
+      <c r="D4" s="31"/>
+      <c r="E4" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="31"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+    </row>
+    <row r="5" spans="4:13">
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+    </row>
+    <row r="6" spans="4:13">
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+    </row>
+    <row r="7" spans="4:13">
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+    </row>
+    <row r="8" spans="4:13">
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+    </row>
+    <row r="9" spans="4:13">
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+    </row>
+    <row r="10" spans="4:13">
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+    </row>
+    <row r="11" spans="4:13">
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+    </row>
+    <row r="12" spans="4:13">
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+    </row>
+    <row r="14" spans="4:13">
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+    </row>
+    <row r="15" spans="4:13">
+      <c r="H15" s="50"/>
+      <c r="I15" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+    </row>
+    <row r="16" spans="4:13">
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+    </row>
+    <row r="17" spans="8:12">
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+    </row>
+    <row r="18" spans="8:12">
+      <c r="H18" s="50"/>
+      <c r="I18" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+    </row>
+    <row r="19" spans="8:12">
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="8:12">
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:O19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="3:15">
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+    </row>
+    <row r="3" spans="3:15">
+      <c r="C3" s="50"/>
+      <c r="D3" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+    </row>
+    <row r="4" spans="3:15">
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="3:15">
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="3:15">
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+    </row>
+    <row r="7" spans="3:15">
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+    </row>
+    <row r="8" spans="3:15">
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+    </row>
+    <row r="9" spans="3:15">
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+    </row>
+    <row r="13" spans="3:15">
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+    </row>
+    <row r="14" spans="3:15">
+      <c r="K14" s="24"/>
+      <c r="L14" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="3:15">
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+    </row>
+    <row r="16" spans="3:15">
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="N16" s="24"/>
+    </row>
+    <row r="17" spans="11:14">
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+    </row>
+    <row r="18" spans="11:14">
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+    </row>
+    <row r="19" spans="11:14">
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:S21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3" spans="3:19">
+      <c r="C3" s="24"/>
+      <c r="D3" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+    </row>
+    <row r="4" spans="3:19">
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="89"/>
+      <c r="R4" s="89"/>
+    </row>
+    <row r="5" spans="3:19">
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="89" t="s">
+        <v>44</v>
+      </c>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+    </row>
+    <row r="6" spans="3:19">
+      <c r="C6" s="24"/>
+      <c r="D6" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="89"/>
+      <c r="O6" s="89"/>
+      <c r="P6" s="89"/>
+      <c r="Q6" s="89"/>
+      <c r="R6" s="89"/>
+    </row>
+    <row r="7" spans="3:19">
+      <c r="C7" s="24"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="89"/>
+      <c r="O7" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="P7" s="89"/>
+      <c r="Q7" s="89"/>
+      <c r="R7" s="89"/>
+      <c r="S7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="3:19">
+      <c r="C8" s="24"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="89"/>
+    </row>
+    <row r="9" spans="3:19">
+      <c r="C9" s="24"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="89"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="89"/>
+      <c r="Q9" s="89" t="s">
+        <v>188</v>
+      </c>
+      <c r="R9" s="89"/>
+    </row>
+    <row r="10" spans="3:19">
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="M10" s="89"/>
+      <c r="N10" s="89"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="89"/>
+      <c r="Q10" s="89"/>
+      <c r="R10" s="89"/>
+    </row>
+    <row r="11" spans="3:19">
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="M11" s="89"/>
+      <c r="N11" s="89"/>
+      <c r="O11" s="89"/>
+      <c r="P11" s="89"/>
+      <c r="Q11" s="89"/>
+      <c r="R11" s="89"/>
+    </row>
+    <row r="12" spans="3:19">
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="M12" s="89"/>
+      <c r="N12" s="89"/>
+      <c r="O12" s="89" t="s">
+        <v>187</v>
+      </c>
+      <c r="P12" s="89"/>
+      <c r="Q12" s="89"/>
+      <c r="R12" s="89"/>
+    </row>
+    <row r="13" spans="3:19">
+      <c r="M13" s="89"/>
+      <c r="N13" s="89"/>
+      <c r="O13" s="89"/>
+      <c r="P13" s="89"/>
+      <c r="Q13" s="89"/>
+      <c r="R13" s="89"/>
+    </row>
+    <row r="14" spans="3:19">
+      <c r="C14" s="105" t="s">
+        <v>182</v>
+      </c>
+      <c r="D14" s="105"/>
+      <c r="F14" s="105" t="s">
+        <v>182</v>
+      </c>
+      <c r="G14" s="105"/>
+      <c r="M14" s="89"/>
+      <c r="N14" s="89"/>
+      <c r="O14" s="89"/>
+      <c r="P14" s="89"/>
+      <c r="Q14" s="89"/>
+      <c r="R14" s="89"/>
+    </row>
+    <row r="15" spans="3:19">
+      <c r="C15" s="105" t="s">
+        <v>183</v>
+      </c>
+      <c r="D15" s="105"/>
+      <c r="F15" s="105" t="s">
+        <v>184</v>
+      </c>
+      <c r="G15" s="105"/>
+    </row>
+    <row r="16" spans="3:19">
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="105"/>
+    </row>
+    <row r="17" spans="3:7">
+      <c r="C17" s="105"/>
+      <c r="D17" s="105"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="105"/>
+    </row>
+    <row r="18" spans="3:7">
+      <c r="C18" s="105"/>
+      <c r="D18" s="105"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="105"/>
+    </row>
+    <row r="19" spans="3:7">
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="105"/>
+    </row>
+    <row r="21" spans="3:7">
+      <c r="D21" t="s">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:S18"/>
   <sheetViews>
@@ -7046,12 +9600,12 @@
       </c>
       <c r="L2" s="59"/>
       <c r="M2" s="60"/>
-      <c r="N2" s="96" t="s">
+      <c r="N2" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="96"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
       <c r="R2" s="60"/>
       <c r="S2" s="61"/>
     </row>
@@ -7252,7 +9806,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:R13"/>
   <sheetViews>
@@ -7425,145 +9979,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:S14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="2" spans="4:19" ht="23.25" customHeight="1">
-      <c r="J2" s="97" t="s">
-        <v>67</v>
-      </c>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-    </row>
-    <row r="3" spans="4:19" ht="21">
-      <c r="D3" s="77" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-    </row>
-    <row r="4" spans="4:19" ht="26.25">
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="P4" s="80" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="71"/>
-    </row>
-    <row r="5" spans="4:19">
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="79" t="s">
-        <v>68</v>
-      </c>
-      <c r="L5" s="78"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="71"/>
-    </row>
-    <row r="6" spans="4:19">
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="71"/>
-    </row>
-    <row r="7" spans="4:19">
-      <c r="D7" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="78"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="71" t="s">
-        <v>70</v>
-      </c>
-      <c r="R7" s="71"/>
-      <c r="S7" s="71"/>
-    </row>
-    <row r="8" spans="4:19">
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="78"/>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="R8" s="71"/>
-      <c r="S8" s="71"/>
-    </row>
-    <row r="9" spans="4:19">
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="P9" s="71"/>
-      <c r="Q9" s="71"/>
-      <c r="R9" s="71"/>
-      <c r="S9" s="71"/>
-    </row>
-    <row r="10" spans="4:19">
-      <c r="P10" s="71"/>
-      <c r="Q10" s="71"/>
-      <c r="R10" s="71"/>
-      <c r="S10" s="71"/>
-    </row>
-    <row r="11" spans="4:19">
-      <c r="P11" s="71"/>
-      <c r="Q11" s="71"/>
-      <c r="R11" s="71"/>
-      <c r="S11" s="71"/>
-    </row>
-    <row r="12" spans="4:19">
-      <c r="P12" s="71"/>
-      <c r="Q12" s="71"/>
-      <c r="R12" s="71"/>
-      <c r="S12" s="71"/>
-    </row>
-    <row r="13" spans="4:19">
-      <c r="P13" s="71"/>
-      <c r="Q13" s="71"/>
-      <c r="R13" s="71"/>
-      <c r="S13" s="71"/>
-    </row>
-    <row r="14" spans="4:19">
-      <c r="P14" s="71"/>
-      <c r="Q14" s="71"/>
-      <c r="R14" s="71"/>
-      <c r="S14" s="71"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="J2:L3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7606,9 +10021,9 @@
       <c r="H8" s="24"/>
       <c r="I8" s="24"/>
       <c r="J8" s="24"/>
-      <c r="N8" s="100"/>
-      <c r="O8" s="100"/>
-      <c r="P8" s="100"/>
+      <c r="N8" s="94"/>
+      <c r="O8" s="94"/>
+      <c r="P8" s="94"/>
     </row>
     <row r="9" spans="6:16">
       <c r="F9" s="24"/>
@@ -7616,9 +10031,9 @@
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
-      <c r="N9" s="100"/>
-      <c r="O9" s="100"/>
-      <c r="P9" s="100"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
     </row>
     <row r="10" spans="6:16">
       <c r="F10" s="24"/>
@@ -7626,11 +10041,11 @@
       <c r="H10" s="24"/>
       <c r="I10" s="24"/>
       <c r="J10" s="24"/>
-      <c r="N10" s="100"/>
-      <c r="O10" s="100" t="s">
+      <c r="N10" s="94"/>
+      <c r="O10" s="94" t="s">
         <v>111</v>
       </c>
-      <c r="P10" s="100"/>
+      <c r="P10" s="94"/>
     </row>
     <row r="11" spans="6:16">
       <c r="F11" s="24"/>
@@ -7638,9 +10053,9 @@
       <c r="H11" s="24"/>
       <c r="I11" s="24"/>
       <c r="J11" s="24"/>
-      <c r="N11" s="100"/>
-      <c r="O11" s="100"/>
-      <c r="P11" s="100"/>
+      <c r="N11" s="94"/>
+      <c r="O11" s="94"/>
+      <c r="P11" s="94"/>
     </row>
     <row r="12" spans="6:16">
       <c r="F12" s="24"/>
@@ -7648,9 +10063,9 @@
       <c r="H12" s="24"/>
       <c r="I12" s="24"/>
       <c r="J12" s="24"/>
-      <c r="N12" s="100"/>
-      <c r="O12" s="100"/>
-      <c r="P12" s="100"/>
+      <c r="N12" s="94"/>
+      <c r="O12" s="94"/>
+      <c r="P12" s="94"/>
     </row>
     <row r="13" spans="6:16">
       <c r="F13" s="24"/>
@@ -7658,9 +10073,9 @@
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
       <c r="J13" s="24"/>
-      <c r="N13" s="100"/>
-      <c r="O13" s="100"/>
-      <c r="P13" s="100"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="94"/>
     </row>
     <row r="14" spans="6:16">
       <c r="F14" s="24"/>
@@ -7701,7 +10116,7 @@
     </row>
     <row r="21" spans="2:15">
       <c r="F21" s="50"/>
-      <c r="G21" s="102"/>
+      <c r="G21" s="96"/>
       <c r="H21" s="50"/>
       <c r="I21" s="50"/>
       <c r="J21" s="50"/>
@@ -7724,7 +10139,7 @@
       <c r="H23" s="50"/>
       <c r="I23" s="50"/>
       <c r="J23" s="50"/>
-      <c r="O23" s="101" t="s">
+      <c r="O23" s="95" t="s">
         <v>115</v>
       </c>
     </row>
@@ -7734,7 +10149,7 @@
       <c r="H24" s="50"/>
       <c r="I24" s="50"/>
       <c r="J24" s="50"/>
-      <c r="O24" s="101" t="s">
+      <c r="O24" s="95" t="s">
         <v>113</v>
       </c>
     </row>
@@ -7744,7 +10159,7 @@
       <c r="H25" s="50"/>
       <c r="I25" s="50"/>
       <c r="J25" s="50"/>
-      <c r="O25" s="101" t="s">
+      <c r="O25" s="95" t="s">
         <v>114</v>
       </c>
     </row>
@@ -7763,6 +10178,145 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D2:S14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="4:19" ht="23.25" customHeight="1">
+      <c r="J2" s="104" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+    </row>
+    <row r="3" spans="4:19" ht="21">
+      <c r="D3" s="77" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+    </row>
+    <row r="4" spans="4:19" ht="26.25">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="P4" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="71"/>
+      <c r="S4" s="71"/>
+    </row>
+    <row r="5" spans="4:19">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="79" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" s="78"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="71"/>
+    </row>
+    <row r="6" spans="4:19">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="71"/>
+      <c r="S6" s="71"/>
+    </row>
+    <row r="7" spans="4:19">
+      <c r="D7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="78"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="71" t="s">
+        <v>70</v>
+      </c>
+      <c r="R7" s="71"/>
+      <c r="S7" s="71"/>
+    </row>
+    <row r="8" spans="4:19">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="78"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="R8" s="71"/>
+      <c r="S8" s="71"/>
+    </row>
+    <row r="9" spans="4:19">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="P9" s="71"/>
+      <c r="Q9" s="71"/>
+      <c r="R9" s="71"/>
+      <c r="S9" s="71"/>
+    </row>
+    <row r="10" spans="4:19">
+      <c r="P10" s="71"/>
+      <c r="Q10" s="71"/>
+      <c r="R10" s="71"/>
+      <c r="S10" s="71"/>
+    </row>
+    <row r="11" spans="4:19">
+      <c r="P11" s="71"/>
+      <c r="Q11" s="71"/>
+      <c r="R11" s="71"/>
+      <c r="S11" s="71"/>
+    </row>
+    <row r="12" spans="4:19">
+      <c r="P12" s="71"/>
+      <c r="Q12" s="71"/>
+      <c r="R12" s="71"/>
+      <c r="S12" s="71"/>
+    </row>
+    <row r="13" spans="4:19">
+      <c r="P13" s="71"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="71"/>
+      <c r="S13" s="71"/>
+    </row>
+    <row r="14" spans="4:19">
+      <c r="P14" s="71"/>
+      <c r="Q14" s="71"/>
+      <c r="R14" s="71"/>
+      <c r="S14" s="71"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J2:L3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7809,46 +10363,46 @@
       <c r="F7" s="50"/>
       <c r="G7" s="50"/>
       <c r="H7" s="50"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
-      <c r="N7" s="103"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="97"/>
+      <c r="M7" s="97"/>
+      <c r="N7" s="97"/>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" s="50"/>
       <c r="F8" s="50"/>
       <c r="G8" s="50"/>
       <c r="H8" s="50"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
-      <c r="N8" s="103"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="97"/>
+      <c r="M8" s="97"/>
+      <c r="N8" s="97"/>
     </row>
     <row r="9" spans="5:15">
       <c r="E9" s="50"/>
       <c r="F9" s="50"/>
       <c r="G9" s="50"/>
       <c r="H9" s="50"/>
-      <c r="K9" s="103"/>
-      <c r="L9" s="103"/>
-      <c r="M9" s="103"/>
-      <c r="N9" s="103"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="97"/>
     </row>
     <row r="10" spans="5:15">
       <c r="E10" s="50"/>
       <c r="F10" s="50"/>
       <c r="G10" s="50"/>
       <c r="H10" s="50"/>
-      <c r="K10" s="103"/>
-      <c r="L10" s="103"/>
-      <c r="M10" s="103"/>
-      <c r="N10" s="103"/>
+      <c r="K10" s="97"/>
+      <c r="L10" s="97"/>
+      <c r="M10" s="97"/>
+      <c r="N10" s="97"/>
     </row>
     <row r="11" spans="5:15">
-      <c r="K11" s="103"/>
-      <c r="L11" s="103"/>
-      <c r="M11" s="103"/>
-      <c r="N11" s="103"/>
+      <c r="K11" s="97"/>
+      <c r="L11" s="97"/>
+      <c r="M11" s="97"/>
+      <c r="N11" s="97"/>
     </row>
     <row r="12" spans="5:15">
       <c r="E12" s="14"/>
@@ -7857,11 +10411,11 @@
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="K12" s="103"/>
-      <c r="L12" s="103"/>
-      <c r="M12" s="103"/>
-      <c r="N12" s="103"/>
-      <c r="O12" s="104" t="s">
+      <c r="K12" s="97"/>
+      <c r="L12" s="97"/>
+      <c r="M12" s="97"/>
+      <c r="N12" s="97"/>
+      <c r="O12" s="98" t="s">
         <v>121</v>
       </c>
     </row>
@@ -7870,10 +10424,10 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
-      <c r="K13" s="103"/>
-      <c r="L13" s="103"/>
-      <c r="M13" s="103"/>
-      <c r="N13" s="103"/>
+      <c r="K13" s="97"/>
+      <c r="L13" s="97"/>
+      <c r="M13" s="97"/>
+      <c r="N13" s="97"/>
     </row>
     <row r="14" spans="5:15">
       <c r="E14" s="14"/>
@@ -7882,56 +10436,56 @@
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="K14" s="103"/>
-      <c r="L14" s="103"/>
-      <c r="M14" s="103"/>
-      <c r="N14" s="103"/>
+      <c r="K14" s="97"/>
+      <c r="L14" s="97"/>
+      <c r="M14" s="97"/>
+      <c r="N14" s="97"/>
     </row>
     <row r="15" spans="5:15">
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
-      <c r="K15" s="103"/>
-      <c r="L15" s="103"/>
-      <c r="M15" s="103"/>
-      <c r="N15" s="103"/>
+      <c r="K15" s="97"/>
+      <c r="L15" s="97"/>
+      <c r="M15" s="97"/>
+      <c r="N15" s="97"/>
     </row>
     <row r="16" spans="5:15">
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
-      <c r="K16" s="103"/>
-      <c r="L16" s="103" t="s">
+      <c r="K16" s="97"/>
+      <c r="L16" s="97" t="s">
         <v>120</v>
       </c>
-      <c r="M16" s="103"/>
-      <c r="N16" s="103"/>
+      <c r="M16" s="97"/>
+      <c r="N16" s="97"/>
     </row>
     <row r="17" spans="5:14">
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
-      <c r="K17" s="103"/>
-      <c r="L17" s="103"/>
-      <c r="M17" s="103"/>
-      <c r="N17" s="103"/>
+      <c r="K17" s="97"/>
+      <c r="L17" s="97"/>
+      <c r="M17" s="97"/>
+      <c r="N17" s="97"/>
     </row>
     <row r="18" spans="5:14">
-      <c r="K18" s="103"/>
-      <c r="L18" s="103" t="s">
+      <c r="K18" s="97"/>
+      <c r="L18" s="97" t="s">
         <v>122</v>
       </c>
-      <c r="M18" s="103"/>
-      <c r="N18" s="103"/>
+      <c r="M18" s="97"/>
+      <c r="N18" s="97"/>
     </row>
     <row r="19" spans="5:14">
-      <c r="K19" s="103"/>
-      <c r="L19" s="103"/>
-      <c r="M19" s="103"/>
-      <c r="N19" s="103"/>
+      <c r="K19" s="97"/>
+      <c r="L19" s="97"/>
+      <c r="M19" s="97"/>
+      <c r="N19" s="97"/>
     </row>
     <row r="20" spans="5:14">
       <c r="E20" s="71"/>
@@ -7940,22 +10494,22 @@
       </c>
       <c r="G20" s="71"/>
       <c r="H20" s="71"/>
-      <c r="K20" s="103"/>
-      <c r="L20" s="103" t="s">
+      <c r="K20" s="97"/>
+      <c r="L20" s="97" t="s">
         <v>127</v>
       </c>
-      <c r="M20" s="103"/>
-      <c r="N20" s="103"/>
+      <c r="M20" s="97"/>
+      <c r="N20" s="97"/>
     </row>
     <row r="21" spans="5:14">
       <c r="E21" s="71"/>
       <c r="F21" s="71"/>
       <c r="G21" s="71"/>
       <c r="H21" s="71"/>
-      <c r="K21" s="103"/>
-      <c r="L21" s="103"/>
-      <c r="M21" s="103"/>
-      <c r="N21" s="103"/>
+      <c r="K21" s="97"/>
+      <c r="L21" s="97"/>
+      <c r="M21" s="97"/>
+      <c r="N21" s="97"/>
     </row>
     <row r="22" spans="5:14">
       <c r="E22" s="71"/>
@@ -7964,10 +10518,10 @@
       </c>
       <c r="G22" s="71"/>
       <c r="H22" s="71"/>
-      <c r="K22" s="103"/>
-      <c r="L22" s="103"/>
-      <c r="M22" s="103"/>
-      <c r="N22" s="103"/>
+      <c r="K22" s="97"/>
+      <c r="L22" s="97"/>
+      <c r="M22" s="97"/>
+      <c r="N22" s="97"/>
     </row>
     <row r="23" spans="5:14">
       <c r="E23" s="71"/>
@@ -8000,162 +10554,162 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F5:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="5" spans="6:12">
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103" t="s">
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97" t="s">
         <v>128</v>
       </c>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="103"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="97"/>
     </row>
     <row r="6" spans="6:12">
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
     </row>
     <row r="7" spans="6:12">
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="97"/>
     </row>
     <row r="8" spans="6:12">
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103" t="s">
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="97" t="s">
         <v>129</v>
       </c>
-      <c r="L8" s="103"/>
+      <c r="L8" s="97"/>
     </row>
     <row r="9" spans="6:12">
-      <c r="F9" s="103"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="103"/>
-      <c r="J9" s="103"/>
-      <c r="K9" s="103" t="s">
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97" t="s">
         <v>130</v>
       </c>
-      <c r="L9" s="103"/>
+      <c r="L9" s="97"/>
     </row>
     <row r="10" spans="6:12">
-      <c r="F10" s="103"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="103"/>
-      <c r="J10" s="103"/>
-      <c r="K10" s="103"/>
-      <c r="L10" s="103"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="97"/>
+      <c r="J10" s="97"/>
+      <c r="K10" s="97"/>
+      <c r="L10" s="97"/>
     </row>
     <row r="11" spans="6:12">
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="103" t="s">
+      <c r="F11" s="97"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="97" t="s">
         <v>131</v>
       </c>
-      <c r="I11" s="103"/>
-      <c r="J11" s="103"/>
-      <c r="K11" s="103"/>
-      <c r="L11" s="103"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="97"/>
+      <c r="K11" s="97"/>
+      <c r="L11" s="97"/>
     </row>
     <row r="12" spans="6:12">
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="103" t="s">
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97" t="s">
         <v>132</v>
       </c>
-      <c r="I12" s="103"/>
-      <c r="J12" s="103"/>
-      <c r="K12" s="103"/>
-      <c r="L12" s="103"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="97"/>
+      <c r="L12" s="97"/>
     </row>
     <row r="13" spans="6:12">
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="103"/>
-      <c r="L13" s="103"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="97"/>
+      <c r="L13" s="97"/>
     </row>
     <row r="14" spans="6:12">
-      <c r="F14" s="103"/>
-      <c r="G14" s="103" t="s">
+      <c r="F14" s="97"/>
+      <c r="G14" s="97" t="s">
         <v>129</v>
       </c>
-      <c r="H14" s="103"/>
-      <c r="I14" s="103"/>
-      <c r="J14" s="103"/>
-      <c r="K14" s="103"/>
-      <c r="L14" s="103"/>
+      <c r="H14" s="97"/>
+      <c r="I14" s="97"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="97"/>
+      <c r="L14" s="97"/>
     </row>
     <row r="15" spans="6:12">
-      <c r="F15" s="103"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="103"/>
-      <c r="I15" s="103"/>
-      <c r="J15" s="103"/>
-      <c r="K15" s="103" t="s">
+      <c r="F15" s="97"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="97"/>
+      <c r="J15" s="97"/>
+      <c r="K15" s="97" t="s">
         <v>133</v>
       </c>
-      <c r="L15" s="103"/>
+      <c r="L15" s="97"/>
     </row>
     <row r="16" spans="6:12">
-      <c r="F16" s="103"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="103" t="s">
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="97" t="s">
         <v>134</v>
       </c>
-      <c r="I16" s="103"/>
-      <c r="J16" s="103"/>
-      <c r="K16" s="103"/>
-      <c r="L16" s="103"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="97"/>
+      <c r="K16" s="97"/>
+      <c r="L16" s="97"/>
     </row>
     <row r="17" spans="6:12">
-      <c r="F17" s="103"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="103"/>
-      <c r="I17" s="103"/>
-      <c r="J17" s="103"/>
-      <c r="K17" s="103"/>
-      <c r="L17" s="103"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="97"/>
+      <c r="K17" s="97"/>
+      <c r="L17" s="97"/>
     </row>
     <row r="18" spans="6:12">
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="103"/>
-      <c r="I18" s="103"/>
-      <c r="J18" s="103"/>
-      <c r="K18" s="103"/>
-      <c r="L18" s="103"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="97"/>
+      <c r="K18" s="97"/>
+      <c r="L18" s="97"/>
     </row>
     <row r="19" spans="6:12">
-      <c r="F19" s="103"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="103"/>
-      <c r="I19" s="103"/>
-      <c r="J19" s="103"/>
-      <c r="K19" s="103"/>
-      <c r="L19" s="103"/>
+      <c r="F19" s="97"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="97"/>
+      <c r="I19" s="97"/>
+      <c r="J19" s="97"/>
+      <c r="K19" s="97"/>
+      <c r="L19" s="97"/>
     </row>
     <row r="21" spans="6:12">
       <c r="I21" t="s">

--- a/Whiteboard.xlsx
+++ b/Whiteboard.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9195" firstSheet="20" activeTab="28"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9195" firstSheet="24" activeTab="32"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,9 +41,13 @@
     <sheet name="Sheet25" sheetId="37" r:id="rId27"/>
     <sheet name="Sheet26" sheetId="38" r:id="rId28"/>
     <sheet name="Sheet27" sheetId="39" r:id="rId29"/>
-    <sheet name="Terraform" sheetId="16" r:id="rId30"/>
-    <sheet name="Sheet14" sheetId="19" r:id="rId31"/>
-    <sheet name="Sheet4" sheetId="21" r:id="rId32"/>
+    <sheet name="Sheet28" sheetId="40" r:id="rId30"/>
+    <sheet name="Sheet29" sheetId="41" r:id="rId31"/>
+    <sheet name="Sheet30" sheetId="42" r:id="rId32"/>
+    <sheet name="Sheet31" sheetId="43" r:id="rId33"/>
+    <sheet name="Terraform" sheetId="16" r:id="rId34"/>
+    <sheet name="Sheet14" sheetId="19" r:id="rId35"/>
+    <sheet name="Sheet4" sheetId="21" r:id="rId36"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$27</definedName>
@@ -58,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="277">
   <si>
     <t>master</t>
   </si>
@@ -774,6 +778,219 @@
   </si>
   <si>
     <t>Artificial Intellegence</t>
+  </si>
+  <si>
+    <t>My App</t>
+  </si>
+  <si>
+    <t>Test Case</t>
+  </si>
+  <si>
+    <t>545 functions</t>
+  </si>
+  <si>
+    <t>20 test cases to test 20 function</t>
+  </si>
+  <si>
+    <t>Deployment Server</t>
+  </si>
+  <si>
+    <t>If Passed</t>
+  </si>
+  <si>
+    <t>1. Code Coverage</t>
+  </si>
+  <si>
+    <t>2. Test cases</t>
+  </si>
+  <si>
+    <t>Github</t>
+  </si>
+  <si>
+    <t>Testing Tools</t>
+  </si>
+  <si>
+    <t>Docker</t>
+  </si>
+  <si>
+    <t>Slack / Teams</t>
+  </si>
+  <si>
+    <t>Devops</t>
+  </si>
+  <si>
+    <t>Configuring your servers</t>
+  </si>
+  <si>
+    <t>Infrastructure Deployment</t>
+  </si>
+  <si>
+    <t>Integration of all these tools</t>
+  </si>
+  <si>
+    <t>Version Control</t>
+  </si>
+  <si>
+    <t>Used by IAAS tools to deploy resources programatically</t>
+  </si>
+  <si>
+    <t>To test the code, deployment before releasing to server. Unit Test, UI Test, Security Test, Code coverage</t>
+  </si>
+  <si>
+    <t>Microservices -&gt; Container</t>
+  </si>
+  <si>
+    <t>Docker / Kubernetes</t>
+  </si>
+  <si>
+    <t>Development and Operations team inter communication</t>
+  </si>
+  <si>
+    <t>Build and Deploy the projects and put all required tasks to build the project in sequence</t>
+  </si>
+  <si>
+    <t>Web Project</t>
+  </si>
+  <si>
+    <t>Microservice based architecture</t>
+  </si>
+  <si>
+    <t>Agile approach for team</t>
+  </si>
+  <si>
+    <t>I will not allow any time. Near to Zero downtime - 99.9999</t>
+  </si>
+  <si>
+    <t>Every week some new improvement is expected - Rapid deployment, every week entire teating is to be done</t>
+  </si>
+  <si>
+    <t>Automated testing</t>
+  </si>
+  <si>
+    <t>Slack / MS Teams</t>
+  </si>
+  <si>
+    <t>Devops Azure Boards</t>
+  </si>
+  <si>
+    <t>Github / Devops Repo</t>
+  </si>
+  <si>
+    <t>Jenkins -&gt; Building the source code -&gt; Azure Pipelines</t>
+  </si>
+  <si>
+    <t>Ansible -&gt; Azure ARM Templates</t>
+  </si>
+  <si>
+    <t>Which Cloud Platform? -&gt;</t>
+  </si>
+  <si>
+    <t>Questions to Ask</t>
+  </si>
+  <si>
+    <t>Any plan to switch to a different platform</t>
+  </si>
+  <si>
+    <t>Any expected duration by when you can switch to different platform</t>
+  </si>
+  <si>
+    <t>If Switching to different?</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Jenkins</t>
+  </si>
+  <si>
+    <t>Not to Use</t>
+  </si>
+  <si>
+    <t>ARM Template</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>Project Code Development</t>
+  </si>
+  <si>
+    <t>Infra Deploy</t>
+  </si>
+  <si>
+    <t>Azure Devops - Pipeline</t>
+  </si>
+  <si>
+    <t>Terrafrm scripts from github</t>
+  </si>
+  <si>
+    <t>Load Testing tools</t>
+  </si>
+  <si>
+    <t>QA/Staging</t>
+  </si>
+  <si>
+    <t>Kubernetes</t>
+  </si>
+  <si>
+    <t>Planning / Communication</t>
+  </si>
+  <si>
+    <t>Team Building</t>
+  </si>
+  <si>
+    <t>Devlopers</t>
+  </si>
+  <si>
+    <t>Testers</t>
+  </si>
+  <si>
+    <t>Project Manager</t>
+  </si>
+  <si>
+    <t>Ops Engineers</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>Must Known</t>
+  </si>
+  <si>
+    <t>Good to Know</t>
+  </si>
+  <si>
+    <t>Github, Docker, Slack / Teams</t>
+  </si>
+  <si>
+    <t>Pipeline, Slack / Teams, Azure Cloud</t>
+  </si>
+  <si>
+    <t>Testing Tools, Pipeline, Github, Slack / Teams</t>
+  </si>
+  <si>
+    <t>Slack / Teams, Boards</t>
+  </si>
+  <si>
+    <t>Ansible, Terraform, Pipeline, Github, Docker, Kubernetes, Slack / Teams</t>
+  </si>
+  <si>
+    <t>Github, Azure Cloud, Slack / Teams</t>
+  </si>
+  <si>
+    <t>Azure Cloud, Testing Tools</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>Ansible, Terraform, Pipeline, Github, Docker, Kubernetes</t>
+  </si>
+  <si>
+    <t>GCP</t>
   </si>
 </sst>
 </file>
@@ -979,7 +1196,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1118,6 +1335,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -1249,7 +1472,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1390,6 +1613,8 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1408,8 +1633,22 @@
     <xf numFmtId="0" fontId="17" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3916,6 +4155,105 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6096000" y="1714501"/>
+          <a:ext cx="1847850" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9220200" y="2505075"/>
+          <a:ext cx="47625" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing24.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
       <xdr:row>4</xdr:row>
@@ -3961,7 +4299,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing25.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6487,49 +6825,49 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1"/>
-      <c r="B16" s="104" t="s">
+      <c r="B16" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="104"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="106"/>
       <c r="G16" s="28"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1"/>
-      <c r="B17" s="104"/>
-      <c r="C17" s="104"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
+      <c r="B17" s="106"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="106"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1"/>
-      <c r="B18" s="104"/>
-      <c r="C18" s="104"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="104"/>
+      <c r="B18" s="106"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="106"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1"/>
-      <c r="B19" s="104"/>
-      <c r="C19" s="104"/>
-      <c r="D19" s="104"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="104"/>
+      <c r="B19" s="106"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="106"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1"/>
-      <c r="B20" s="104"/>
-      <c r="C20" s="104"/>
-      <c r="D20" s="104"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="104"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" ht="41.25" customHeight="1">
@@ -7016,20 +7354,20 @@
       </c>
       <c r="G4" s="22"/>
       <c r="I4" s="24"/>
-      <c r="J4" s="106" t="s">
+      <c r="J4" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="106"/>
+      <c r="K4" s="108"/>
       <c r="M4" s="14"/>
       <c r="N4" s="26" t="s">
         <v>16</v>
       </c>
       <c r="O4" s="14"/>
-      <c r="Q4" s="105" t="s">
+      <c r="Q4" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="R4" s="105"/>
-      <c r="S4" s="105"/>
+      <c r="R4" s="107"/>
+      <c r="S4" s="107"/>
     </row>
     <row r="5" spans="5:19">
       <c r="E5" s="22"/>
@@ -7179,10 +7517,10 @@
       </c>
       <c r="J13" s="27"/>
       <c r="K13" s="27"/>
-      <c r="M13" s="107" t="s">
+      <c r="M13" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="N13" s="107"/>
+      <c r="N13" s="109"/>
     </row>
     <row r="14" spans="8:17">
       <c r="H14" s="27"/>
@@ -10272,7 +10610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D19" sqref="D19:I23"/>
     </sheetView>
   </sheetViews>
@@ -10399,48 +10737,48 @@
       </c>
     </row>
     <row r="19" spans="4:11">
-      <c r="D19" s="110"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="111" t="s">
+      <c r="D19" s="104"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="105" t="s">
         <v>204</v>
       </c>
-      <c r="G19" s="110"/>
-      <c r="H19" s="110"/>
-      <c r="I19" s="110"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="104"/>
+      <c r="I19" s="104"/>
     </row>
     <row r="20" spans="4:11">
-      <c r="D20" s="110"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="110"/>
-      <c r="G20" s="110"/>
-      <c r="H20" s="110"/>
-      <c r="I20" s="110"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="104"/>
+      <c r="I20" s="104"/>
     </row>
     <row r="21" spans="4:11">
-      <c r="D21" s="110"/>
-      <c r="E21" s="111" t="s">
+      <c r="D21" s="104"/>
+      <c r="E21" s="105" t="s">
         <v>205</v>
       </c>
-      <c r="F21" s="110"/>
-      <c r="G21" s="110"/>
-      <c r="H21" s="110"/>
-      <c r="I21" s="110"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="104"/>
+      <c r="I21" s="104"/>
     </row>
     <row r="22" spans="4:11">
-      <c r="D22" s="110"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="110"/>
-      <c r="G22" s="110"/>
-      <c r="H22" s="110"/>
-      <c r="I22" s="110"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="104"/>
     </row>
     <row r="23" spans="4:11">
-      <c r="D23" s="110"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="110"/>
-      <c r="H23" s="110"/>
-      <c r="I23" s="110"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="104"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="104"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10650,6 +10988,760 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E3:R19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="5:18">
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+    </row>
+    <row r="4" spans="5:18">
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="105" t="s">
+        <v>206</v>
+      </c>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+    </row>
+    <row r="5" spans="5:18">
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
+    </row>
+    <row r="6" spans="5:18">
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="104"/>
+      <c r="N6" s="112"/>
+      <c r="O6" s="112"/>
+      <c r="P6" s="112"/>
+      <c r="Q6" s="112"/>
+      <c r="R6" s="112"/>
+    </row>
+    <row r="7" spans="5:18">
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="112"/>
+      <c r="R7" s="112"/>
+    </row>
+    <row r="8" spans="5:18">
+      <c r="E8" s="105" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="104"/>
+      <c r="G8" s="105" t="s">
+        <v>208</v>
+      </c>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="N8" s="112"/>
+      <c r="O8" s="112" t="s">
+        <v>212</v>
+      </c>
+      <c r="P8" s="112"/>
+      <c r="Q8" s="112"/>
+      <c r="R8" s="112"/>
+    </row>
+    <row r="9" spans="5:18">
+      <c r="E9" s="105" t="s">
+        <v>207</v>
+      </c>
+      <c r="F9" s="104"/>
+      <c r="G9" s="105" t="s">
+        <v>209</v>
+      </c>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="N9" s="112"/>
+      <c r="O9" s="112" t="s">
+        <v>213</v>
+      </c>
+      <c r="P9" s="112"/>
+      <c r="Q9" s="112"/>
+      <c r="R9" s="112"/>
+    </row>
+    <row r="10" spans="5:18">
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="105"/>
+      <c r="N10" s="112"/>
+      <c r="O10" s="112"/>
+      <c r="P10" s="112"/>
+      <c r="Q10" s="112"/>
+      <c r="R10" s="112"/>
+    </row>
+    <row r="11" spans="5:18">
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="105"/>
+      <c r="N11" s="112"/>
+      <c r="O11" s="112"/>
+      <c r="P11" s="112"/>
+      <c r="Q11" s="112"/>
+      <c r="R11" s="112"/>
+    </row>
+    <row r="12" spans="5:18">
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="104"/>
+      <c r="N12" s="112"/>
+      <c r="O12" s="112"/>
+      <c r="P12" s="112"/>
+      <c r="Q12" s="112"/>
+      <c r="R12" s="112"/>
+    </row>
+    <row r="13" spans="5:18">
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="104"/>
+      <c r="N13" s="112"/>
+      <c r="O13" s="112"/>
+      <c r="P13" s="112"/>
+      <c r="Q13" s="112"/>
+      <c r="R13" s="112"/>
+    </row>
+    <row r="14" spans="5:18">
+      <c r="E14" s="104"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="104"/>
+      <c r="J14" s="104"/>
+    </row>
+    <row r="15" spans="5:18">
+      <c r="E15" s="104"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="104"/>
+      <c r="J15" s="104"/>
+    </row>
+    <row r="16" spans="5:18">
+      <c r="E16" s="104"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="104"/>
+      <c r="J16" s="104"/>
+      <c r="O16" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="19" spans="15:15">
+      <c r="O19" t="s">
+        <v>210</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="26.25" customHeight="1"/>
+  <cols>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="82.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="26.25" customHeight="1">
+      <c r="B1" s="103" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" ht="26.25" customHeight="1">
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="26.25" customHeight="1">
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="26.25" customHeight="1">
+      <c r="B4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="26.25" customHeight="1">
+      <c r="B5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="26.25" customHeight="1">
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="26.25" customHeight="1">
+      <c r="B7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="26.25" customHeight="1">
+      <c r="B8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="26.25" customHeight="1">
+      <c r="B9" t="s">
+        <v>217</v>
+      </c>
+      <c r="C9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="26.25" customHeight="1">
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>228</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="46.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10">
+      <c r="B1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+    </row>
+    <row r="2" spans="2:10">
+      <c r="B2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112" t="s">
+        <v>229</v>
+      </c>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" t="s">
+        <v>236</v>
+      </c>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="H8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="H9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="H10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="103" t="s">
+        <v>244</v>
+      </c>
+      <c r="H11" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="103" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" t="s">
+        <v>246</v>
+      </c>
+      <c r="H16" s="103" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="H17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="103" t="s">
+        <v>247</v>
+      </c>
+      <c r="H18" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" t="s">
+        <v>248</v>
+      </c>
+      <c r="H19" t="s">
+        <v>243</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="113" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="113" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="113" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" style="113" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="113" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="113" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" style="113" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="113" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" style="113" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="113"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="113">
+        <v>1</v>
+      </c>
+      <c r="B1" s="113">
+        <v>2</v>
+      </c>
+      <c r="C1" s="113">
+        <v>3</v>
+      </c>
+      <c r="D1" s="113">
+        <v>4</v>
+      </c>
+      <c r="E1" s="113">
+        <v>5</v>
+      </c>
+      <c r="F1" s="113">
+        <v>6</v>
+      </c>
+      <c r="G1" s="113">
+        <v>7</v>
+      </c>
+      <c r="H1" s="113">
+        <v>8</v>
+      </c>
+      <c r="I1" s="113">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="114" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" s="114" t="s">
+        <v>252</v>
+      </c>
+      <c r="E2" s="114" t="s">
+        <v>249</v>
+      </c>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114" t="s">
+        <v>256</v>
+      </c>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="113" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="C6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D6" t="s">
+        <v>253</v>
+      </c>
+      <c r="E6" t="s">
+        <v>253</v>
+      </c>
+      <c r="G6" t="s">
+        <v>253</v>
+      </c>
+      <c r="I6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="C7" s="57" t="s">
+        <v>214</v>
+      </c>
+      <c r="D7" s="57" t="s">
+        <v>214</v>
+      </c>
+      <c r="E7" s="57" t="s">
+        <v>214</v>
+      </c>
+      <c r="G7" s="113" t="s">
+        <v>254</v>
+      </c>
+      <c r="I7" s="113" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s">
+        <v>215</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="D9" t="s">
+        <v>216</v>
+      </c>
+      <c r="E9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G9" s="113" t="s">
+        <v>255</v>
+      </c>
+      <c r="I9" s="115" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="D10"/>
+      <c r="E10" t="s">
+        <v>217</v>
+      </c>
+      <c r="G10" s="115" t="s">
+        <v>257</v>
+      </c>
+      <c r="I10" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="G11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="C12" s="113" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="116" t="s">
+        <v>259</v>
+      </c>
+      <c r="F13" s="116" t="s">
+        <v>265</v>
+      </c>
+      <c r="G13" s="116" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="30">
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="117" t="s">
+        <v>260</v>
+      </c>
+      <c r="F14" s="117" t="s">
+        <v>267</v>
+      </c>
+      <c r="G14" s="117" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="30">
+      <c r="B15" t="s">
+        <v>246</v>
+      </c>
+      <c r="C15" t="s">
+        <v>253</v>
+      </c>
+      <c r="E15" s="117" t="s">
+        <v>261</v>
+      </c>
+      <c r="F15" s="117" t="s">
+        <v>269</v>
+      </c>
+      <c r="G15" s="117" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16" t="s">
+        <v>214</v>
+      </c>
+      <c r="C16" t="s">
+        <v>214</v>
+      </c>
+      <c r="E16" s="117" t="s">
+        <v>262</v>
+      </c>
+      <c r="F16" s="117" t="s">
+        <v>270</v>
+      </c>
+      <c r="G16" s="117" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="45">
+      <c r="B17" t="s">
+        <v>276</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="117" t="s">
+        <v>263</v>
+      </c>
+      <c r="F17" s="117" t="s">
+        <v>271</v>
+      </c>
+      <c r="G17" s="117" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="30">
+      <c r="B18" t="s">
+        <v>215</v>
+      </c>
+      <c r="C18" t="s">
+        <v>215</v>
+      </c>
+      <c r="E18" s="117" t="s">
+        <v>264</v>
+      </c>
+      <c r="F18" s="117" t="s">
+        <v>272</v>
+      </c>
+      <c r="G18" s="117" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="45">
+      <c r="B19" t="s">
+        <v>216</v>
+      </c>
+      <c r="C19" t="s">
+        <v>216</v>
+      </c>
+      <c r="E19" s="113" t="s">
+        <v>274</v>
+      </c>
+      <c r="F19" s="113" t="s">
+        <v>217</v>
+      </c>
+      <c r="G19" s="117" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="115" t="s">
+        <v>257</v>
+      </c>
+      <c r="C20" s="115" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" t="s">
+        <v>217</v>
+      </c>
+      <c r="C21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="C22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:S18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10665,12 +11757,12 @@
       </c>
       <c r="L2" s="59"/>
       <c r="M2" s="60"/>
-      <c r="N2" s="108" t="s">
+      <c r="N2" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
       <c r="R2" s="60"/>
       <c r="S2" s="61"/>
     </row>
@@ -10871,7 +11963,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:R13"/>
   <sheetViews>
@@ -11047,7 +12139,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:S14"/>
   <sheetViews>
@@ -11058,20 +12150,20 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="4:19" ht="23.25" customHeight="1">
-      <c r="J2" s="109" t="s">
+      <c r="J2" s="111" t="s">
         <v>67</v>
       </c>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
     </row>
     <row r="3" spans="4:19" ht="21">
       <c r="D3" s="77" t="s">
         <v>65</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
     </row>
     <row r="4" spans="4:19" ht="26.25">
       <c r="D4" s="4"/>
